--- a/data_created/risk_score_age_75.xlsx
+++ b/data_created/risk_score_age_75.xlsx
@@ -3320,7 +3320,7 @@
         <v>212744</v>
       </c>
       <c r="E2" t="n">
-        <v>3.93592225986946</v>
+        <v>3.70749154460763</v>
       </c>
     </row>
     <row r="3">
@@ -3337,7 +3337,7 @@
         <v>84937</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2601111051986</v>
+        <v>3.06842041826807</v>
       </c>
     </row>
     <row r="4">
@@ -3354,7 +3354,7 @@
         <v>195369</v>
       </c>
       <c r="E4" t="n">
-        <v>3.27221048258608</v>
+        <v>3.02257541735734</v>
       </c>
     </row>
     <row r="5">
@@ -3371,7 +3371,7 @@
         <v>190273</v>
       </c>
       <c r="E5" t="n">
-        <v>3.8953119522003</v>
+        <v>3.69790554275518</v>
       </c>
     </row>
     <row r="6">
@@ -3388,7 +3388,7 @@
         <v>199525</v>
       </c>
       <c r="E6" t="n">
-        <v>3.92405259831861</v>
+        <v>3.73540004448723</v>
       </c>
     </row>
     <row r="7">
@@ -3405,7 +3405,7 @@
         <v>100296</v>
       </c>
       <c r="E7" t="n">
-        <v>3.44126570048733</v>
+        <v>3.23332933575567</v>
       </c>
     </row>
     <row r="8">
@@ -3422,7 +3422,7 @@
         <v>294356</v>
       </c>
       <c r="E8" t="n">
-        <v>3.01296076811584</v>
+        <v>2.8143575535595</v>
       </c>
     </row>
     <row r="9">
@@ -3439,7 +3439,7 @@
         <v>84034</v>
       </c>
       <c r="E9" t="n">
-        <v>3.56260076431659</v>
+        <v>3.37573665589768</v>
       </c>
     </row>
     <row r="10">
@@ -3456,7 +3456,7 @@
         <v>253448</v>
       </c>
       <c r="E10" t="n">
-        <v>3.11380987995715</v>
+        <v>2.93190374263463</v>
       </c>
     </row>
     <row r="11">
@@ -3473,7 +3473,7 @@
         <v>242362</v>
       </c>
       <c r="E11" t="n">
-        <v>3.15562627704549</v>
+        <v>2.97927798460009</v>
       </c>
     </row>
     <row r="12">
@@ -3490,7 +3490,7 @@
         <v>246708</v>
       </c>
       <c r="E12" t="n">
-        <v>3.40597205059414</v>
+        <v>3.20103029031934</v>
       </c>
     </row>
     <row r="13">
@@ -3507,7 +3507,7 @@
         <v>496395</v>
       </c>
       <c r="E13" t="n">
-        <v>3.30003681660724</v>
+        <v>3.09832492584543</v>
       </c>
     </row>
     <row r="14">
@@ -3524,7 +3524,7 @@
         <v>168174</v>
       </c>
       <c r="E14" t="n">
-        <v>3.23170568349679</v>
+        <v>3.03823651510148</v>
       </c>
     </row>
     <row r="15">
@@ -3541,7 +3541,7 @@
         <v>1626085</v>
       </c>
       <c r="E15" t="n">
-        <v>3.47398693268307</v>
+        <v>3.26987652221529</v>
       </c>
     </row>
     <row r="16">
@@ -3558,7 +3558,7 @@
         <v>249947</v>
       </c>
       <c r="E16" t="n">
-        <v>3.13612778731734</v>
+        <v>2.940875999719</v>
       </c>
     </row>
     <row r="17">
@@ -3575,7 +3575,7 @@
         <v>134079</v>
       </c>
       <c r="E17" t="n">
-        <v>3.14834046934139</v>
+        <v>2.94966679553621</v>
       </c>
     </row>
     <row r="18">
@@ -3592,7 +3592,7 @@
         <v>185025</v>
       </c>
       <c r="E18" t="n">
-        <v>3.24930519739578</v>
+        <v>3.06113999001822</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>535676</v>
       </c>
       <c r="E19" t="n">
-        <v>3.60483884690452</v>
+        <v>3.43514678597723</v>
       </c>
     </row>
     <row r="20">
@@ -3626,7 +3626,7 @@
         <v>95494</v>
       </c>
       <c r="E20" t="n">
-        <v>3.63562459075199</v>
+        <v>3.46924416061686</v>
       </c>
     </row>
     <row r="21">
@@ -3643,7 +3643,7 @@
         <v>85258</v>
       </c>
       <c r="E21" t="n">
-        <v>3.41013051216037</v>
+        <v>3.247854509314</v>
       </c>
     </row>
     <row r="22">
@@ -3660,7 +3660,7 @@
         <v>88028</v>
       </c>
       <c r="E22" t="n">
-        <v>3.52776111166471</v>
+        <v>3.32910657549745</v>
       </c>
     </row>
     <row r="23">
@@ -3677,7 +3677,7 @@
         <v>75867</v>
       </c>
       <c r="E23" t="n">
-        <v>3.37157960117595</v>
+        <v>3.19391378336719</v>
       </c>
     </row>
     <row r="24">
@@ -3694,7 +3694,7 @@
         <v>198594</v>
       </c>
       <c r="E24" t="n">
-        <v>3.72274713472584</v>
+        <v>3.5091149764945</v>
       </c>
     </row>
     <row r="25">
@@ -3711,7 +3711,7 @@
         <v>82397</v>
       </c>
       <c r="E25" t="n">
-        <v>3.49710782547865</v>
+        <v>3.33018873653849</v>
       </c>
     </row>
     <row r="26">
@@ -3728,7 +3728,7 @@
         <v>79188</v>
       </c>
       <c r="E26" t="n">
-        <v>3.26334165470681</v>
+        <v>3.10534711148523</v>
       </c>
     </row>
     <row r="27">
@@ -3745,7 +3745,7 @@
         <v>85391</v>
       </c>
       <c r="E27" t="n">
-        <v>3.59752700182664</v>
+        <v>3.46543468705918</v>
       </c>
     </row>
     <row r="28">
@@ -3762,7 +3762,7 @@
         <v>352456</v>
       </c>
       <c r="E28" t="n">
-        <v>3.42992800301731</v>
+        <v>3.25114258480754</v>
       </c>
     </row>
     <row r="29">
@@ -3779,7 +3779,7 @@
         <v>111683</v>
       </c>
       <c r="E29" t="n">
-        <v>3.32739596502754</v>
+        <v>3.1476629022517</v>
       </c>
     </row>
     <row r="30">
@@ -3796,7 +3796,7 @@
         <v>73071</v>
       </c>
       <c r="E30" t="n">
-        <v>3.52906741493679</v>
+        <v>3.3612249904793</v>
       </c>
     </row>
     <row r="31">
@@ -3813,7 +3813,7 @@
         <v>380887</v>
       </c>
       <c r="E31" t="n">
-        <v>3.59140164311709</v>
+        <v>3.43395229779935</v>
       </c>
     </row>
     <row r="32">
@@ -3830,7 +3830,7 @@
         <v>77772</v>
       </c>
       <c r="E32" t="n">
-        <v>3.74853097167471</v>
+        <v>3.62230895045481</v>
       </c>
     </row>
     <row r="33">
@@ -3847,7 +3847,7 @@
         <v>122334</v>
       </c>
       <c r="E33" t="n">
-        <v>3.13405315701085</v>
+        <v>2.97980028307313</v>
       </c>
     </row>
     <row r="34">
@@ -3864,7 +3864,7 @@
         <v>83026</v>
       </c>
       <c r="E34" t="n">
-        <v>3.3229692631395</v>
+        <v>3.14045623327174</v>
       </c>
     </row>
     <row r="35">
@@ -3881,7 +3881,7 @@
         <v>104823</v>
       </c>
       <c r="E35" t="n">
-        <v>3.28246875947885</v>
+        <v>3.14298913450943</v>
       </c>
     </row>
     <row r="36">
@@ -3898,7 +3898,7 @@
         <v>115326</v>
       </c>
       <c r="E36" t="n">
-        <v>3.11295397960992</v>
+        <v>2.94033951122864</v>
       </c>
     </row>
     <row r="37">
@@ -3915,7 +3915,7 @@
         <v>92736</v>
       </c>
       <c r="E37" t="n">
-        <v>3.62889239346746</v>
+        <v>3.51847851623422</v>
       </c>
     </row>
     <row r="38">
@@ -3932,7 +3932,7 @@
         <v>93297</v>
       </c>
       <c r="E38" t="n">
-        <v>3.4567618289795</v>
+        <v>3.30630899626171</v>
       </c>
     </row>
     <row r="39">
@@ -3949,7 +3949,7 @@
         <v>89798</v>
       </c>
       <c r="E39" t="n">
-        <v>3.49970536234011</v>
+        <v>3.33832079865419</v>
       </c>
     </row>
     <row r="40">
@@ -3966,7 +3966,7 @@
         <v>80400</v>
       </c>
       <c r="E40" t="n">
-        <v>3.26610276471036</v>
+        <v>3.14215745515038</v>
       </c>
     </row>
     <row r="41">
@@ -3983,7 +3983,7 @@
         <v>270450</v>
       </c>
       <c r="E41" t="n">
-        <v>3.48228769898172</v>
+        <v>3.31329832371424</v>
       </c>
     </row>
     <row r="42">
@@ -4000,7 +4000,7 @@
         <v>87924</v>
       </c>
       <c r="E42" t="n">
-        <v>3.4130832089424</v>
+        <v>3.24472631361505</v>
       </c>
     </row>
     <row r="43">
@@ -4017,7 +4017,7 @@
         <v>109700</v>
       </c>
       <c r="E43" t="n">
-        <v>3.52373734150681</v>
+        <v>3.37709432223716</v>
       </c>
     </row>
     <row r="44">
@@ -4034,7 +4034,7 @@
         <v>97626</v>
       </c>
       <c r="E44" t="n">
-        <v>3.87502633541752</v>
+        <v>3.70915811994722</v>
       </c>
     </row>
     <row r="45">
@@ -4051,7 +4051,7 @@
         <v>129778</v>
       </c>
       <c r="E45" t="n">
-        <v>3.13925566071506</v>
+        <v>2.95758850889735</v>
       </c>
     </row>
     <row r="46">
@@ -4068,7 +4068,7 @@
         <v>167843</v>
       </c>
       <c r="E46" t="n">
-        <v>3.5102193474842</v>
+        <v>3.3628179282436</v>
       </c>
     </row>
     <row r="47">
@@ -4085,7 +4085,7 @@
         <v>113821</v>
       </c>
       <c r="E47" t="n">
-        <v>3.26522103739822</v>
+        <v>3.08881798768988</v>
       </c>
     </row>
     <row r="48">
@@ -4102,7 +4102,7 @@
         <v>107091</v>
       </c>
       <c r="E48" t="n">
-        <v>3.15442386962897</v>
+        <v>2.9823202505109</v>
       </c>
     </row>
     <row r="49">
@@ -4119,7 +4119,7 @@
         <v>113089</v>
       </c>
       <c r="E49" t="n">
-        <v>3.83063391900272</v>
+        <v>3.69354567250111</v>
       </c>
     </row>
     <row r="50">
@@ -4136,7 +4136,7 @@
         <v>103906</v>
       </c>
       <c r="E50" t="n">
-        <v>3.40969040918016</v>
+        <v>3.20710281204307</v>
       </c>
     </row>
     <row r="51">
@@ -4153,7 +4153,7 @@
         <v>171831</v>
       </c>
       <c r="E51" t="n">
-        <v>3.38471891054683</v>
+        <v>3.25106820733566</v>
       </c>
     </row>
     <row r="52">
@@ -4170,7 +4170,7 @@
         <v>151979</v>
       </c>
       <c r="E52" t="n">
-        <v>3.55806822706112</v>
+        <v>3.36948243654413</v>
       </c>
     </row>
     <row r="53">
@@ -4187,7 +4187,7 @@
         <v>116280</v>
       </c>
       <c r="E53" t="n">
-        <v>3.33919438190184</v>
+        <v>3.16325356445375</v>
       </c>
     </row>
     <row r="54">
@@ -4204,7 +4204,7 @@
         <v>78038</v>
       </c>
       <c r="E54" t="n">
-        <v>3.25367398387605</v>
+        <v>3.11067010371405</v>
       </c>
     </row>
     <row r="55">
@@ -4221,7 +4221,7 @@
         <v>211820</v>
       </c>
       <c r="E55" t="n">
-        <v>3.61254540461522</v>
+        <v>3.46413916448106</v>
       </c>
     </row>
     <row r="56">
@@ -4238,7 +4238,7 @@
         <v>234954</v>
       </c>
       <c r="E56" t="n">
-        <v>3.23652539118238</v>
+        <v>3.08426005465857</v>
       </c>
     </row>
     <row r="57">
@@ -4255,7 +4255,7 @@
         <v>527422</v>
       </c>
       <c r="E57" t="n">
-        <v>3.68425212269508</v>
+        <v>3.51827128511203</v>
       </c>
     </row>
     <row r="58">
@@ -4272,7 +4272,7 @@
         <v>140402</v>
       </c>
       <c r="E58" t="n">
-        <v>3.46968484446118</v>
+        <v>3.28764223322903</v>
       </c>
     </row>
     <row r="59">
@@ -4289,7 +4289,7 @@
         <v>174228</v>
       </c>
       <c r="E59" t="n">
-        <v>3.42520551007108</v>
+        <v>3.2442377259368</v>
       </c>
     </row>
     <row r="60">
@@ -4306,7 +4306,7 @@
         <v>203066</v>
       </c>
       <c r="E60" t="n">
-        <v>3.38320850428267</v>
+        <v>3.23359153297941</v>
       </c>
     </row>
     <row r="61">
@@ -4323,7 +4323,7 @@
         <v>87863</v>
       </c>
       <c r="E61" t="n">
-        <v>3.61820639805563</v>
+        <v>3.47406009089034</v>
       </c>
     </row>
     <row r="62">
@@ -4340,7 +4340,7 @@
         <v>160485</v>
       </c>
       <c r="E62" t="n">
-        <v>3.40594841493953</v>
+        <v>3.24357492406058</v>
       </c>
     </row>
     <row r="63">
@@ -4357,7 +4357,7 @@
         <v>85153</v>
       </c>
       <c r="E63" t="n">
-        <v>3.62159316998415</v>
+        <v>3.43696682791949</v>
       </c>
     </row>
     <row r="64">
@@ -4374,7 +4374,7 @@
         <v>94867</v>
       </c>
       <c r="E64" t="n">
-        <v>3.63835740917448</v>
+        <v>3.47011325285179</v>
       </c>
     </row>
     <row r="65">
@@ -4391,7 +4391,7 @@
         <v>201882</v>
       </c>
       <c r="E65" t="n">
-        <v>3.20200184759186</v>
+        <v>3.02732768801364</v>
       </c>
     </row>
     <row r="66">
@@ -4408,7 +4408,7 @@
         <v>89784</v>
       </c>
       <c r="E66" t="n">
-        <v>3.48426748595776</v>
+        <v>3.32920611488932</v>
       </c>
     </row>
     <row r="67">
@@ -4425,7 +4425,7 @@
         <v>110611</v>
       </c>
       <c r="E67" t="n">
-        <v>3.73895019274581</v>
+        <v>3.60041731538777</v>
       </c>
     </row>
     <row r="68">
@@ -4442,7 +4442,7 @@
         <v>277436</v>
       </c>
       <c r="E68" t="n">
-        <v>3.13238069852892</v>
+        <v>2.97953868788106</v>
       </c>
     </row>
     <row r="69">
@@ -4459,7 +4459,7 @@
         <v>84308</v>
       </c>
       <c r="E69" t="n">
-        <v>3.16205500642832</v>
+        <v>2.99445881214293</v>
       </c>
     </row>
     <row r="70">
@@ -4476,7 +4476,7 @@
         <v>80971</v>
       </c>
       <c r="E70" t="n">
-        <v>3.44941430614026</v>
+        <v>3.32202226504798</v>
       </c>
     </row>
     <row r="71">
@@ -4493,7 +4493,7 @@
         <v>160323</v>
       </c>
       <c r="E71" t="n">
-        <v>3.58912972154632</v>
+        <v>3.43001207331132</v>
       </c>
     </row>
     <row r="72">
@@ -4510,7 +4510,7 @@
         <v>90290</v>
       </c>
       <c r="E72" t="n">
-        <v>3.19547753848573</v>
+        <v>3.0246659641532</v>
       </c>
     </row>
     <row r="73">
@@ -4527,7 +4527,7 @@
         <v>469459</v>
       </c>
       <c r="E73" t="n">
-        <v>3.59535433580493</v>
+        <v>3.45441828534624</v>
       </c>
     </row>
     <row r="74">
@@ -4544,7 +4544,7 @@
         <v>3999742</v>
       </c>
       <c r="E74" t="n">
-        <v>3.62347523503288</v>
+        <v>3.4770941107262</v>
       </c>
     </row>
     <row r="75">
@@ -4561,7 +4561,7 @@
         <v>71115</v>
       </c>
       <c r="E75" t="n">
-        <v>4.04725495779007</v>
+        <v>3.90565971803284</v>
       </c>
     </row>
     <row r="76">
@@ -4578,7 +4578,7 @@
         <v>79275</v>
       </c>
       <c r="E76" t="n">
-        <v>3.54738049591476</v>
+        <v>3.3941228246126</v>
       </c>
     </row>
     <row r="77">
@@ -4595,7 +4595,7 @@
         <v>90599</v>
       </c>
       <c r="E77" t="n">
-        <v>3.44313481884599</v>
+        <v>3.28353813584966</v>
       </c>
     </row>
     <row r="78">
@@ -4612,7 +4612,7 @@
         <v>83100</v>
       </c>
       <c r="E78" t="n">
-        <v>3.67264560298515</v>
+        <v>3.51004488908651</v>
       </c>
     </row>
     <row r="79">
@@ -4629,7 +4629,7 @@
         <v>78108</v>
       </c>
       <c r="E79" t="n">
-        <v>3.00240115058242</v>
+        <v>2.84021788258875</v>
       </c>
     </row>
     <row r="80">
@@ -4646,7 +4646,7 @@
         <v>96009</v>
       </c>
       <c r="E80" t="n">
-        <v>3.17274478360573</v>
+        <v>2.99713656659052</v>
       </c>
     </row>
     <row r="81">
@@ -4663,7 +4663,7 @@
         <v>214220</v>
       </c>
       <c r="E81" t="n">
-        <v>3.50455189891297</v>
+        <v>3.35323947784426</v>
       </c>
     </row>
     <row r="82">
@@ -4680,7 +4680,7 @@
         <v>207211</v>
       </c>
       <c r="E82" t="n">
-        <v>3.62083560109855</v>
+        <v>3.4787280083913</v>
       </c>
     </row>
     <row r="83">
@@ -4697,7 +4697,7 @@
         <v>81443</v>
       </c>
       <c r="E83" t="n">
-        <v>3.08765646696323</v>
+        <v>2.9159584473158</v>
       </c>
     </row>
     <row r="84">
@@ -4714,7 +4714,7 @@
         <v>113316</v>
       </c>
       <c r="E84" t="n">
-        <v>3.49834049979669</v>
+        <v>3.35980229420076</v>
       </c>
     </row>
     <row r="85">
@@ -4731,7 +4731,7 @@
         <v>79782</v>
       </c>
       <c r="E85" t="n">
-        <v>3.08960588537803</v>
+        <v>2.89798913229375</v>
       </c>
     </row>
     <row r="86">
@@ -4748,7 +4748,7 @@
         <v>86151</v>
       </c>
       <c r="E86" t="n">
-        <v>3.05818184442079</v>
+        <v>2.88735679637305</v>
       </c>
     </row>
     <row r="87">
@@ -4765,7 +4765,7 @@
         <v>106086</v>
       </c>
       <c r="E87" t="n">
-        <v>3.66961169444116</v>
+        <v>3.53126536979298</v>
       </c>
     </row>
     <row r="88">
@@ -4782,7 +4782,7 @@
         <v>425204</v>
       </c>
       <c r="E88" t="n">
-        <v>3.45241555760817</v>
+        <v>3.27755140301751</v>
       </c>
     </row>
     <row r="89">
@@ -4799,7 +4799,7 @@
         <v>176208</v>
       </c>
       <c r="E89" t="n">
-        <v>3.35962119098756</v>
+        <v>3.18060728807448</v>
       </c>
     </row>
     <row r="90">
@@ -4816,7 +4816,7 @@
         <v>175850</v>
       </c>
       <c r="E90" t="n">
-        <v>3.78363963901261</v>
+        <v>3.63726288176663</v>
       </c>
     </row>
     <row r="91">
@@ -4833,7 +4833,7 @@
         <v>140557</v>
       </c>
       <c r="E91" t="n">
-        <v>3.2934477858052</v>
+        <v>3.11832333949276</v>
       </c>
     </row>
     <row r="92">
@@ -4850,7 +4850,7 @@
         <v>210038</v>
       </c>
       <c r="E92" t="n">
-        <v>3.63039009321744</v>
+        <v>3.44810987903098</v>
       </c>
     </row>
     <row r="93">
@@ -4867,7 +4867,7 @@
         <v>157507</v>
       </c>
       <c r="E93" t="n">
-        <v>3.66895555864859</v>
+        <v>3.52051227010223</v>
       </c>
     </row>
     <row r="94">
@@ -4884,7 +4884,7 @@
         <v>142632</v>
       </c>
       <c r="E94" t="n">
-        <v>3.54382112674552</v>
+        <v>3.40726770155914</v>
       </c>
     </row>
     <row r="95">
@@ -4901,7 +4901,7 @@
         <v>77895</v>
       </c>
       <c r="E95" t="n">
-        <v>3.68136424451229</v>
+        <v>3.53498515478958</v>
       </c>
     </row>
     <row r="96">
@@ -4918,7 +4918,7 @@
         <v>83007</v>
       </c>
       <c r="E96" t="n">
-        <v>3.16434929570572</v>
+        <v>2.99951595823729</v>
       </c>
     </row>
     <row r="97">
@@ -4935,7 +4935,7 @@
         <v>152946</v>
       </c>
       <c r="E97" t="n">
-        <v>3.77473460468896</v>
+        <v>3.63376197104104</v>
       </c>
     </row>
     <row r="98">
@@ -4952,7 +4952,7 @@
         <v>177446</v>
       </c>
       <c r="E98" t="n">
-        <v>3.45506457258351</v>
+        <v>3.3268548927785</v>
       </c>
     </row>
     <row r="99">
@@ -4969,7 +4969,7 @@
         <v>91788</v>
       </c>
       <c r="E99" t="n">
-        <v>3.26999487607622</v>
+        <v>3.06268413048776</v>
       </c>
     </row>
     <row r="100">
@@ -4986,7 +4986,7 @@
         <v>71562</v>
       </c>
       <c r="E100" t="n">
-        <v>3.42885059216973</v>
+        <v>3.2791460636477</v>
       </c>
     </row>
     <row r="101">
@@ -5003,7 +5003,7 @@
         <v>67908</v>
       </c>
       <c r="E101" t="n">
-        <v>3.23847077023237</v>
+        <v>3.11429779085007</v>
       </c>
     </row>
     <row r="102">
@@ -5020,7 +5020,7 @@
         <v>86683</v>
       </c>
       <c r="E102" t="n">
-        <v>3.27729761306945</v>
+        <v>3.0902301507272</v>
       </c>
     </row>
     <row r="103">
@@ -5037,7 +5037,7 @@
         <v>103555</v>
       </c>
       <c r="E103" t="n">
-        <v>3.80300175090868</v>
+        <v>3.64235975502509</v>
       </c>
     </row>
     <row r="104">
@@ -5054,7 +5054,7 @@
         <v>110037</v>
       </c>
       <c r="E104" t="n">
-        <v>3.25509715346787</v>
+        <v>3.06708558410698</v>
       </c>
     </row>
     <row r="105">
@@ -5071,7 +5071,7 @@
         <v>327722</v>
       </c>
       <c r="E105" t="n">
-        <v>3.56561160355942</v>
+        <v>3.41674130987264</v>
       </c>
     </row>
     <row r="106">
@@ -5088,7 +5088,7 @@
         <v>135325</v>
       </c>
       <c r="E106" t="n">
-        <v>2.74058089092392</v>
+        <v>2.55448957222403</v>
       </c>
     </row>
     <row r="107">
@@ -5105,7 +5105,7 @@
         <v>501890</v>
       </c>
       <c r="E107" t="n">
-        <v>3.53117960365962</v>
+        <v>3.38266002773197</v>
       </c>
     </row>
     <row r="108">
@@ -5122,7 +5122,7 @@
         <v>157594</v>
       </c>
       <c r="E108" t="n">
-        <v>3.94527996586671</v>
+        <v>3.78935768481191</v>
       </c>
     </row>
     <row r="109">
@@ -5139,7 +5139,7 @@
         <v>216983</v>
       </c>
       <c r="E109" t="n">
-        <v>3.87290733576084</v>
+        <v>3.70603009701484</v>
       </c>
     </row>
     <row r="110">
@@ -5156,7 +5156,7 @@
         <v>110784</v>
       </c>
       <c r="E110" t="n">
-        <v>3.34032739510732</v>
+        <v>3.15448412003144</v>
       </c>
     </row>
     <row r="111">
@@ -5173,7 +5173,7 @@
         <v>1419488</v>
       </c>
       <c r="E111" t="n">
-        <v>3.3115441786031</v>
+        <v>3.13573636572611</v>
       </c>
     </row>
     <row r="112">
@@ -5190,7 +5190,7 @@
         <v>884363</v>
       </c>
       <c r="E112" t="n">
-        <v>3.29805690874575</v>
+        <v>3.12708751400277</v>
       </c>
     </row>
     <row r="113">
@@ -5207,7 +5207,7 @@
         <v>1035353</v>
       </c>
       <c r="E113" t="n">
-        <v>3.08144137294092</v>
+        <v>2.90731377962338</v>
       </c>
     </row>
     <row r="114">
@@ -5224,7 +5224,7 @@
         <v>90555</v>
       </c>
       <c r="E114" t="n">
-        <v>3.38219758355709</v>
+        <v>3.21019398959544</v>
       </c>
     </row>
     <row r="115">
@@ -5241,7 +5241,7 @@
         <v>96188</v>
       </c>
       <c r="E115" t="n">
-        <v>3.33157981623415</v>
+        <v>3.15829425283986</v>
       </c>
     </row>
     <row r="116">
@@ -5258,7 +5258,7 @@
         <v>104733</v>
       </c>
       <c r="E116" t="n">
-        <v>3.15550365272943</v>
+        <v>2.9808229390393</v>
       </c>
     </row>
     <row r="117">
@@ -5275,7 +5275,7 @@
         <v>75922</v>
       </c>
       <c r="E117" t="n">
-        <v>2.90120658335467</v>
+        <v>2.75065509930384</v>
       </c>
     </row>
     <row r="118">
@@ -5292,7 +5292,7 @@
         <v>334135</v>
       </c>
       <c r="E118" t="n">
-        <v>3.68852626028743</v>
+        <v>3.49768174591678</v>
       </c>
     </row>
     <row r="119">
@@ -5309,7 +5309,7 @@
         <v>127131</v>
       </c>
       <c r="E119" t="n">
-        <v>2.98743193611813</v>
+        <v>2.81703114939693</v>
       </c>
     </row>
     <row r="120">
@@ -5326,7 +5326,7 @@
         <v>210886</v>
       </c>
       <c r="E120" t="n">
-        <v>3.38816474237135</v>
+        <v>3.25495945609734</v>
       </c>
     </row>
     <row r="121">
@@ -5343,7 +5343,7 @@
         <v>107018</v>
       </c>
       <c r="E121" t="n">
-        <v>4.02983785381014</v>
+        <v>3.875737684997</v>
       </c>
     </row>
     <row r="122">
@@ -5360,7 +5360,7 @@
         <v>92298</v>
       </c>
       <c r="E122" t="n">
-        <v>3.34284915404956</v>
+        <v>3.21483578414609</v>
       </c>
     </row>
     <row r="123">
@@ -5377,7 +5377,7 @@
         <v>175269</v>
       </c>
       <c r="E123" t="n">
-        <v>3.28626616623949</v>
+        <v>3.10792397899665</v>
       </c>
     </row>
     <row r="124">
@@ -5394,7 +5394,7 @@
         <v>126875</v>
       </c>
       <c r="E124" t="n">
-        <v>3.10222672367974</v>
+        <v>2.92323418536422</v>
       </c>
     </row>
     <row r="125">
@@ -5411,7 +5411,7 @@
         <v>310476</v>
       </c>
       <c r="E125" t="n">
-        <v>3.65697339413944</v>
+        <v>3.50034689959473</v>
       </c>
     </row>
     <row r="126">
@@ -5428,7 +5428,7 @@
         <v>153656</v>
       </c>
       <c r="E126" t="n">
-        <v>3.0815688848204</v>
+        <v>2.9121801042916</v>
       </c>
     </row>
     <row r="127">
@@ -5445,7 +5445,7 @@
         <v>114318</v>
       </c>
       <c r="E127" t="n">
-        <v>3.323294742307</v>
+        <v>3.18876457000274</v>
       </c>
     </row>
     <row r="128">
@@ -5462,7 +5462,7 @@
         <v>128972</v>
       </c>
       <c r="E128" t="n">
-        <v>3.21538462799016</v>
+        <v>3.03730442598097</v>
       </c>
     </row>
     <row r="129">
@@ -5479,7 +5479,7 @@
         <v>146745</v>
       </c>
       <c r="E129" t="n">
-        <v>3.35761970877194</v>
+        <v>3.22913959539683</v>
       </c>
     </row>
     <row r="130">
@@ -5496,7 +5496,7 @@
         <v>90886</v>
       </c>
       <c r="E130" t="n">
-        <v>3.42377613181876</v>
+        <v>3.2897403783795</v>
       </c>
     </row>
     <row r="131">
@@ -5513,7 +5513,7 @@
         <v>73562</v>
       </c>
       <c r="E131" t="n">
-        <v>3.46458453350393</v>
+        <v>3.31574906053299</v>
       </c>
     </row>
     <row r="132">
@@ -5530,7 +5530,7 @@
         <v>80502</v>
       </c>
       <c r="E132" t="n">
-        <v>3.5461716313005</v>
+        <v>3.38215433997679</v>
       </c>
     </row>
     <row r="133">
@@ -5547,7 +5547,7 @@
         <v>75344</v>
       </c>
       <c r="E133" t="n">
-        <v>3.37949788153102</v>
+        <v>3.21413674250115</v>
       </c>
     </row>
     <row r="134">
@@ -5564,7 +5564,7 @@
         <v>76985</v>
       </c>
       <c r="E134" t="n">
-        <v>3.54243321960888</v>
+        <v>3.39456451070324</v>
       </c>
     </row>
     <row r="135">
@@ -5581,7 +5581,7 @@
         <v>100023</v>
       </c>
       <c r="E135" t="n">
-        <v>3.2730590244788</v>
+        <v>3.09308580794665</v>
       </c>
     </row>
     <row r="136">
@@ -5598,7 +5598,7 @@
         <v>122086</v>
       </c>
       <c r="E136" t="n">
-        <v>3.49253947046044</v>
+        <v>3.30736378888838</v>
       </c>
     </row>
     <row r="137">
@@ -5615,7 +5615,7 @@
         <v>122465</v>
       </c>
       <c r="E137" t="n">
-        <v>3.75616093847369</v>
+        <v>3.59683363776617</v>
       </c>
     </row>
     <row r="138">
@@ -5632,7 +5632,7 @@
         <v>133009</v>
       </c>
       <c r="E138" t="n">
-        <v>3.60341793330173</v>
+        <v>3.44469457068517</v>
       </c>
     </row>
     <row r="139">
@@ -5649,7 +5649,7 @@
         <v>101557</v>
       </c>
       <c r="E139" t="n">
-        <v>3.46333016420289</v>
+        <v>3.27657831655997</v>
       </c>
     </row>
     <row r="140">
@@ -5666,7 +5666,7 @@
         <v>107623</v>
       </c>
       <c r="E140" t="n">
-        <v>3.55949410746397</v>
+        <v>3.42736491969102</v>
       </c>
     </row>
     <row r="141">
@@ -5683,7 +5683,7 @@
         <v>91548</v>
       </c>
       <c r="E141" t="n">
-        <v>3.42397669138477</v>
+        <v>3.23274699176176</v>
       </c>
     </row>
     <row r="142">
@@ -5700,7 +5700,7 @@
         <v>86841</v>
       </c>
       <c r="E142" t="n">
-        <v>3.61509815604224</v>
+        <v>3.4900269949546</v>
       </c>
     </row>
     <row r="143">
@@ -5717,7 +5717,7 @@
         <v>118300</v>
       </c>
       <c r="E143" t="n">
-        <v>2.66740534076781</v>
+        <v>2.47916267786223</v>
       </c>
     </row>
     <row r="144">
@@ -5734,7 +5734,7 @@
         <v>367250</v>
       </c>
       <c r="E144" t="n">
-        <v>3.21396880282938</v>
+        <v>3.02630065955204</v>
       </c>
     </row>
     <row r="145">
@@ -5751,7 +5751,7 @@
         <v>107128</v>
       </c>
       <c r="E145" t="n">
-        <v>2.93816123355942</v>
+        <v>2.74647476079609</v>
       </c>
     </row>
     <row r="146">
@@ -5768,7 +5768,7 @@
         <v>110277</v>
       </c>
       <c r="E146" t="n">
-        <v>2.85761404886738</v>
+        <v>2.67732717427605</v>
       </c>
     </row>
     <row r="147">
@@ -5785,7 +5785,7 @@
         <v>464470</v>
       </c>
       <c r="E147" t="n">
-        <v>2.98257140590281</v>
+        <v>2.7679430086306</v>
       </c>
     </row>
     <row r="148">
@@ -5802,7 +5802,7 @@
         <v>704621</v>
       </c>
       <c r="E148" t="n">
-        <v>3.41593087734443</v>
+        <v>3.27758596459781</v>
       </c>
     </row>
     <row r="149">
@@ -5819,7 +5819,7 @@
         <v>165089</v>
       </c>
       <c r="E149" t="n">
-        <v>2.7824174058113</v>
+        <v>2.58102068844729</v>
       </c>
     </row>
     <row r="150">
@@ -5836,7 +5836,7 @@
         <v>105457</v>
       </c>
       <c r="E150" t="n">
-        <v>3.14038908862945</v>
+        <v>2.94141032910467</v>
       </c>
     </row>
     <row r="151">
@@ -5853,7 +5853,7 @@
         <v>154952</v>
       </c>
       <c r="E151" t="n">
-        <v>2.87231382253083</v>
+        <v>2.6825491140375</v>
       </c>
     </row>
     <row r="152">
@@ -5870,7 +5870,7 @@
         <v>94145</v>
       </c>
       <c r="E152" t="n">
-        <v>2.94435380269837</v>
+        <v>2.73776564932807</v>
       </c>
     </row>
     <row r="153">
@@ -5887,7 +5887,7 @@
         <v>76702</v>
       </c>
       <c r="E153" t="n">
-        <v>3.00681548018071</v>
+        <v>2.79076689016888</v>
       </c>
     </row>
     <row r="154">
@@ -5904,7 +5904,7 @@
         <v>111121</v>
       </c>
       <c r="E154" t="n">
-        <v>3.58429981525255</v>
+        <v>3.40924998007601</v>
       </c>
     </row>
     <row r="155">
@@ -5921,7 +5921,7 @@
         <v>136992</v>
       </c>
       <c r="E155" t="n">
-        <v>3.15700405353556</v>
+        <v>2.98393937825971</v>
       </c>
     </row>
     <row r="156">
@@ -5938,7 +5938,7 @@
         <v>112814</v>
       </c>
       <c r="E156" t="n">
-        <v>3.11604167541959</v>
+        <v>2.94069421525844</v>
       </c>
     </row>
     <row r="157">
@@ -5955,7 +5955,7 @@
         <v>146582</v>
       </c>
       <c r="E157" t="n">
-        <v>3.48355701631112</v>
+        <v>3.2913966473845</v>
       </c>
     </row>
     <row r="158">
@@ -5972,7 +5972,7 @@
         <v>85243</v>
       </c>
       <c r="E158" t="n">
-        <v>3.23065072552214</v>
+        <v>3.04251985067808</v>
       </c>
     </row>
     <row r="159">
@@ -5989,7 +5989,7 @@
         <v>123420</v>
       </c>
       <c r="E159" t="n">
-        <v>3.70636157216555</v>
+        <v>3.50322448394382</v>
       </c>
     </row>
     <row r="160">
@@ -6006,7 +6006,7 @@
         <v>72718</v>
       </c>
       <c r="E160" t="n">
-        <v>3.49748359923412</v>
+        <v>3.30060227906285</v>
       </c>
     </row>
     <row r="161">
@@ -6023,7 +6023,7 @@
         <v>131005</v>
       </c>
       <c r="E161" t="n">
-        <v>3.54292455574315</v>
+        <v>3.33865499114369</v>
       </c>
     </row>
     <row r="162">
@@ -6040,7 +6040,7 @@
         <v>89000</v>
       </c>
       <c r="E162" t="n">
-        <v>3.11407973927051</v>
+        <v>2.92517056055251</v>
       </c>
     </row>
     <row r="163">
@@ -6057,7 +6057,7 @@
         <v>130835</v>
       </c>
       <c r="E163" t="n">
-        <v>3.17431413707231</v>
+        <v>2.99087529819508</v>
       </c>
     </row>
     <row r="164">
@@ -6074,7 +6074,7 @@
         <v>108642</v>
       </c>
       <c r="E164" t="n">
-        <v>3.56630494283506</v>
+        <v>3.35222137507451</v>
       </c>
     </row>
     <row r="165">
@@ -6091,7 +6091,7 @@
         <v>693972</v>
       </c>
       <c r="E165" t="n">
-        <v>3.59284117729864</v>
+        <v>3.46328031795744</v>
       </c>
     </row>
     <row r="166">
@@ -6108,7 +6108,7 @@
         <v>98153</v>
       </c>
       <c r="E166" t="n">
-        <v>3.14634575669439</v>
+        <v>2.94592018311309</v>
       </c>
     </row>
     <row r="167">
@@ -6125,7 +6125,7 @@
         <v>77704</v>
       </c>
       <c r="E167" t="n">
-        <v>3.45427705476816</v>
+        <v>3.23316419318174</v>
       </c>
     </row>
     <row r="168">
@@ -6142,7 +6142,7 @@
         <v>183356</v>
       </c>
       <c r="E168" t="n">
-        <v>3.21428208170803</v>
+        <v>2.98294802425964</v>
       </c>
     </row>
     <row r="169">
@@ -6159,7 +6159,7 @@
         <v>115501</v>
       </c>
       <c r="E169" t="n">
-        <v>3.32448584307186</v>
+        <v>3.10640543455915</v>
       </c>
     </row>
     <row r="170">
@@ -6176,7 +6176,7 @@
         <v>133058</v>
       </c>
       <c r="E170" t="n">
-        <v>3.46617428242595</v>
+        <v>3.2883498700576</v>
       </c>
     </row>
     <row r="171">
@@ -6193,7 +6193,7 @@
         <v>105146</v>
       </c>
       <c r="E171" t="n">
-        <v>3.27240726088284</v>
+        <v>3.09667985475031</v>
       </c>
     </row>
     <row r="172">
@@ -6210,7 +6210,7 @@
         <v>80572</v>
       </c>
       <c r="E172" t="n">
-        <v>3.52380225084421</v>
+        <v>3.31541242383223</v>
       </c>
     </row>
     <row r="173">
@@ -6227,7 +6227,7 @@
         <v>90743</v>
       </c>
       <c r="E173" t="n">
-        <v>3.40227778267272</v>
+        <v>3.1608267044917</v>
       </c>
     </row>
     <row r="174">
@@ -6244,7 +6244,7 @@
         <v>180071</v>
       </c>
       <c r="E174" t="n">
-        <v>3.61016918715118</v>
+        <v>3.39203317025509</v>
       </c>
     </row>
     <row r="175">
@@ -6261,7 +6261,7 @@
         <v>132253</v>
       </c>
       <c r="E175" t="n">
-        <v>3.43461994738412</v>
+        <v>3.25529433348314</v>
       </c>
     </row>
     <row r="176">
@@ -6278,7 +6278,7 @@
         <v>153625</v>
       </c>
       <c r="E176" t="n">
-        <v>3.60711014519757</v>
+        <v>3.40466799762774</v>
       </c>
     </row>
     <row r="177">
@@ -6295,7 +6295,7 @@
         <v>892064</v>
       </c>
       <c r="E177" t="n">
-        <v>3.61357653902766</v>
+        <v>3.43630554254033</v>
       </c>
     </row>
     <row r="178">
@@ -6312,7 +6312,7 @@
         <v>108051</v>
       </c>
       <c r="E178" t="n">
-        <v>3.63468335746139</v>
+        <v>3.43762020604957</v>
       </c>
     </row>
     <row r="179">
@@ -6329,7 +6329,7 @@
         <v>84768</v>
       </c>
       <c r="E179" t="n">
-        <v>3.18413441538869</v>
+        <v>2.94499394236584</v>
       </c>
     </row>
     <row r="180">
@@ -6346,7 +6346,7 @@
         <v>71976</v>
       </c>
       <c r="E180" t="n">
-        <v>4.12279499825214</v>
+        <v>3.92703925939646</v>
       </c>
     </row>
     <row r="181">
@@ -6363,7 +6363,7 @@
         <v>82003</v>
       </c>
       <c r="E181" t="n">
-        <v>3.22513823614219</v>
+        <v>2.97701402164013</v>
       </c>
     </row>
     <row r="182">
@@ -6380,7 +6380,7 @@
         <v>463354</v>
       </c>
       <c r="E182" t="n">
-        <v>3.96279537919774</v>
+        <v>3.77613746531598</v>
       </c>
     </row>
     <row r="183">
@@ -6397,7 +6397,7 @@
         <v>92319</v>
       </c>
       <c r="E183" t="n">
-        <v>3.69419272232966</v>
+        <v>3.5299200608547</v>
       </c>
     </row>
     <row r="184">
@@ -6414,7 +6414,7 @@
         <v>140323</v>
       </c>
       <c r="E184" t="n">
-        <v>3.66798479686032</v>
+        <v>3.48563870030081</v>
       </c>
     </row>
     <row r="185">
@@ -6431,7 +6431,7 @@
         <v>280258</v>
       </c>
       <c r="E185" t="n">
-        <v>3.7097607434325</v>
+        <v>3.55140549680385</v>
       </c>
     </row>
     <row r="186">
@@ -6448,7 +6448,7 @@
         <v>111660</v>
       </c>
       <c r="E186" t="n">
-        <v>3.27808573729432</v>
+        <v>3.01356943542933</v>
       </c>
     </row>
     <row r="187">
@@ -6465,7 +6465,7 @@
         <v>88394</v>
       </c>
       <c r="E187" t="n">
-        <v>3.00423366546398</v>
+        <v>2.75141972357984</v>
       </c>
     </row>
     <row r="188">
@@ -6482,7 +6482,7 @@
         <v>170703</v>
       </c>
       <c r="E188" t="n">
-        <v>3.52927285325468</v>
+        <v>3.3481917120747</v>
       </c>
     </row>
     <row r="189">
@@ -6499,7 +6499,7 @@
         <v>93922</v>
       </c>
       <c r="E189" t="n">
-        <v>3.43398195118443</v>
+        <v>3.25547865733904</v>
       </c>
     </row>
     <row r="190">
@@ -6516,7 +6516,7 @@
         <v>110464</v>
       </c>
       <c r="E190" t="n">
-        <v>3.79827137416241</v>
+        <v>3.57252996418521</v>
       </c>
     </row>
     <row r="191">
@@ -6533,7 +6533,7 @@
         <v>189331</v>
       </c>
       <c r="E191" t="n">
-        <v>3.32434873815515</v>
+        <v>3.10931283760975</v>
       </c>
     </row>
     <row r="192">
@@ -6550,7 +6550,7 @@
         <v>263252</v>
       </c>
       <c r="E192" t="n">
-        <v>3.21648646299672</v>
+        <v>2.99909702920553</v>
       </c>
     </row>
     <row r="193">
@@ -6567,7 +6567,7 @@
         <v>94313</v>
       </c>
       <c r="E193" t="n">
-        <v>3.69071624557108</v>
+        <v>3.51486945774435</v>
       </c>
     </row>
     <row r="194">
@@ -6584,7 +6584,7 @@
         <v>191039</v>
       </c>
       <c r="E194" t="n">
-        <v>3.48069951468829</v>
+        <v>3.33683621189396</v>
       </c>
     </row>
     <row r="195">
@@ -6601,7 +6601,7 @@
         <v>385423</v>
       </c>
       <c r="E195" t="n">
-        <v>3.61857429779521</v>
+        <v>3.44744032414275</v>
       </c>
     </row>
     <row r="196">
@@ -6618,7 +6618,7 @@
         <v>110219</v>
       </c>
       <c r="E196" t="n">
-        <v>3.38093247151454</v>
+        <v>3.1712685385242</v>
       </c>
     </row>
     <row r="197">
@@ -6635,7 +6635,7 @@
         <v>71593</v>
       </c>
       <c r="E197" t="n">
-        <v>4.1175016410853</v>
+        <v>3.94285540517883</v>
       </c>
     </row>
     <row r="198">
@@ -6652,7 +6652,7 @@
         <v>125929</v>
       </c>
       <c r="E198" t="n">
-        <v>3.4699763213735</v>
+        <v>3.31871627549765</v>
       </c>
     </row>
     <row r="199">
@@ -6669,7 +6669,7 @@
         <v>486299</v>
       </c>
       <c r="E199" t="n">
-        <v>3.69898646044351</v>
+        <v>3.54681899764396</v>
       </c>
     </row>
     <row r="200">
@@ -6686,7 +6686,7 @@
         <v>195678</v>
       </c>
       <c r="E200" t="n">
-        <v>3.81559730430415</v>
+        <v>3.63748523046159</v>
       </c>
     </row>
     <row r="201">
@@ -6703,7 +6703,7 @@
         <v>194058</v>
       </c>
       <c r="E201" t="n">
-        <v>3.72576560675444</v>
+        <v>3.5483833737818</v>
       </c>
     </row>
     <row r="202">
@@ -6720,7 +6720,7 @@
         <v>84359</v>
       </c>
       <c r="E202" t="n">
-        <v>3.22906503688094</v>
+        <v>3.09324927684953</v>
       </c>
     </row>
     <row r="203">
@@ -6737,7 +6737,7 @@
         <v>94792</v>
       </c>
       <c r="E203" t="n">
-        <v>3.21930865177101</v>
+        <v>3.07727724457796</v>
       </c>
     </row>
     <row r="204">
@@ -6754,7 +6754,7 @@
         <v>106742</v>
       </c>
       <c r="E204" t="n">
-        <v>3.21175975982031</v>
+        <v>3.08251974316797</v>
       </c>
     </row>
     <row r="205">
@@ -6771,7 +6771,7 @@
         <v>146449</v>
       </c>
       <c r="E205" t="n">
-        <v>3.81134989670506</v>
+        <v>3.64408529844627</v>
       </c>
     </row>
     <row r="206">
@@ -6788,7 +6788,7 @@
         <v>75675</v>
       </c>
       <c r="E206" t="n">
-        <v>3.34905178243202</v>
+        <v>3.14634514586622</v>
       </c>
     </row>
     <row r="207">
@@ -6805,7 +6805,7 @@
         <v>226567</v>
       </c>
       <c r="E207" t="n">
-        <v>2.98743921115764</v>
+        <v>2.7571088718706</v>
       </c>
     </row>
     <row r="208">
@@ -6822,7 +6822,7 @@
         <v>93585</v>
       </c>
       <c r="E208" t="n">
-        <v>3.43450431950205</v>
+        <v>3.21488809249753</v>
       </c>
     </row>
     <row r="209">
@@ -6839,7 +6839,7 @@
         <v>75097</v>
       </c>
       <c r="E209" t="n">
-        <v>3.48782880036506</v>
+        <v>3.32894105139197</v>
       </c>
     </row>
     <row r="210">
@@ -6856,7 +6856,7 @@
         <v>202548</v>
       </c>
       <c r="E210" t="n">
-        <v>3.20491574116411</v>
+        <v>3.00287255842535</v>
       </c>
     </row>
     <row r="211">
@@ -6873,7 +6873,7 @@
         <v>77941</v>
       </c>
       <c r="E211" t="n">
-        <v>3.11828371177945</v>
+        <v>2.88150828455896</v>
       </c>
     </row>
     <row r="212">
@@ -6890,7 +6890,7 @@
         <v>72155</v>
       </c>
       <c r="E212" t="n">
-        <v>3.02718602786483</v>
+        <v>2.83183467918179</v>
       </c>
     </row>
     <row r="213">
@@ -6907,7 +6907,7 @@
         <v>87426</v>
       </c>
       <c r="E213" t="n">
-        <v>3.15020979691941</v>
+        <v>2.96486516863877</v>
       </c>
     </row>
     <row r="214">
@@ -6924,7 +6924,7 @@
         <v>2716462</v>
       </c>
       <c r="E214" t="n">
-        <v>3.61621707542867</v>
+        <v>3.45014819677824</v>
       </c>
     </row>
     <row r="215">
@@ -6941,7 +6941,7 @@
         <v>68645</v>
       </c>
       <c r="E215" t="n">
-        <v>3.50119912207042</v>
+        <v>3.27477949131814</v>
       </c>
     </row>
     <row r="216">
@@ -6958,7 +6958,7 @@
         <v>114459</v>
       </c>
       <c r="E216" t="n">
-        <v>3.16258653540994</v>
+        <v>2.95601269135841</v>
       </c>
     </row>
     <row r="217">
@@ -6975,7 +6975,7 @@
         <v>74752</v>
       </c>
       <c r="E217" t="n">
-        <v>3.37294040379196</v>
+        <v>3.23334028038441</v>
       </c>
     </row>
     <row r="218">
@@ -6992,7 +6992,7 @@
         <v>147150</v>
       </c>
       <c r="E218" t="n">
-        <v>3.1275798231538</v>
+        <v>2.90849871381664</v>
       </c>
     </row>
     <row r="219">
@@ -7009,7 +7009,7 @@
         <v>148584</v>
       </c>
       <c r="E219" t="n">
-        <v>2.66493648427306</v>
+        <v>2.47417434002179</v>
       </c>
     </row>
     <row r="220">
@@ -7026,7 +7026,7 @@
         <v>68610</v>
       </c>
       <c r="E220" t="n">
-        <v>3.18503709099461</v>
+        <v>3.03424550955696</v>
       </c>
     </row>
     <row r="221">
@@ -7043,7 +7043,7 @@
         <v>115637</v>
       </c>
       <c r="E221" t="n">
-        <v>3.53162634311378</v>
+        <v>3.31837346326917</v>
       </c>
     </row>
     <row r="222">
@@ -7060,7 +7060,7 @@
         <v>148287</v>
       </c>
       <c r="E222" t="n">
-        <v>3.69738278585861</v>
+        <v>3.4672794410772</v>
       </c>
     </row>
     <row r="223">
@@ -7077,7 +7077,7 @@
         <v>73118</v>
       </c>
       <c r="E223" t="n">
-        <v>3.38520602929623</v>
+        <v>3.23727119396307</v>
       </c>
     </row>
     <row r="224">
@@ -7094,7 +7094,7 @@
         <v>114663</v>
       </c>
       <c r="E224" t="n">
-        <v>3.19076270306326</v>
+        <v>2.96735249037051</v>
       </c>
     </row>
     <row r="225">
@@ -7111,7 +7111,7 @@
         <v>88805</v>
       </c>
       <c r="E225" t="n">
-        <v>3.29412626405383</v>
+        <v>3.05436648086352</v>
       </c>
     </row>
     <row r="226">
@@ -7128,7 +7128,7 @@
         <v>85551</v>
       </c>
       <c r="E226" t="n">
-        <v>3.1529111319299</v>
+        <v>2.96513933849167</v>
       </c>
     </row>
     <row r="227">
@@ -7145,7 +7145,7 @@
         <v>93148</v>
       </c>
       <c r="E227" t="n">
-        <v>2.62674792916456</v>
+        <v>2.43392926253856</v>
       </c>
     </row>
     <row r="228">
@@ -7162,7 +7162,7 @@
         <v>117940</v>
       </c>
       <c r="E228" t="n">
-        <v>3.50028633871108</v>
+        <v>3.26172016697327</v>
       </c>
     </row>
     <row r="229">
@@ -7179,7 +7179,7 @@
         <v>90907</v>
       </c>
       <c r="E229" t="n">
-        <v>2.58886906625258</v>
+        <v>2.40447756730979</v>
       </c>
     </row>
     <row r="230">
@@ -7196,7 +7196,7 @@
         <v>254796</v>
       </c>
       <c r="E230" t="n">
-        <v>3.24024618977543</v>
+        <v>3.00945087074185</v>
       </c>
     </row>
     <row r="231">
@@ -7213,7 +7213,7 @@
         <v>76627</v>
       </c>
       <c r="E231" t="n">
-        <v>3.8442585771099</v>
+        <v>3.63410366890427</v>
       </c>
     </row>
     <row r="232">
@@ -7230,7 +7230,7 @@
         <v>857386</v>
       </c>
       <c r="E232" t="n">
-        <v>3.62964552260167</v>
+        <v>3.44383645452459</v>
       </c>
     </row>
     <row r="233">
@@ -7247,7 +7247,7 @@
         <v>71225</v>
       </c>
       <c r="E233" t="n">
-        <v>3.30488238200432</v>
+        <v>3.08101004862534</v>
       </c>
     </row>
     <row r="234">
@@ -7264,7 +7264,7 @@
         <v>68450</v>
       </c>
       <c r="E234" t="n">
-        <v>3.43802352671573</v>
+        <v>3.20439821037671</v>
       </c>
     </row>
     <row r="235">
@@ -7281,7 +7281,7 @@
         <v>96143</v>
       </c>
       <c r="E235" t="n">
-        <v>3.82531080572834</v>
+        <v>3.58772382705183</v>
       </c>
     </row>
     <row r="236">
@@ -7298,7 +7298,7 @@
         <v>132240</v>
       </c>
       <c r="E236" t="n">
-        <v>2.86347274749641</v>
+        <v>2.65214648711155</v>
       </c>
     </row>
     <row r="237">
@@ -7315,7 +7315,7 @@
         <v>102314</v>
       </c>
       <c r="E237" t="n">
-        <v>3.14585427253005</v>
+        <v>2.89113479436797</v>
       </c>
     </row>
     <row r="238">
@@ -7332,7 +7332,7 @@
         <v>217508</v>
       </c>
       <c r="E238" t="n">
-        <v>3.05972670742565</v>
+        <v>2.81200914164053</v>
       </c>
     </row>
     <row r="239">
@@ -7349,7 +7349,7 @@
         <v>75788</v>
       </c>
       <c r="E239" t="n">
-        <v>3.03948641127151</v>
+        <v>2.85082536634158</v>
       </c>
     </row>
     <row r="240">
@@ -7366,7 +7366,7 @@
         <v>84034</v>
       </c>
       <c r="E240" t="n">
-        <v>3.41238857642992</v>
+        <v>3.19298501606098</v>
       </c>
     </row>
     <row r="241">
@@ -7383,7 +7383,7 @@
         <v>67588</v>
       </c>
       <c r="E241" t="n">
-        <v>3.17987930274646</v>
+        <v>2.95346313933629</v>
       </c>
     </row>
     <row r="242">
@@ -7400,7 +7400,7 @@
         <v>155031</v>
       </c>
       <c r="E242" t="n">
-        <v>3.78163821178498</v>
+        <v>3.58355673201729</v>
       </c>
     </row>
     <row r="243">
@@ -7417,7 +7417,7 @@
         <v>95000</v>
       </c>
       <c r="E243" t="n">
-        <v>3.06785864185145</v>
+        <v>2.87372011926072</v>
       </c>
     </row>
     <row r="244">
@@ -7434,7 +7434,7 @@
         <v>137500</v>
       </c>
       <c r="E244" t="n">
-        <v>2.70656179298769</v>
+        <v>2.51345180206581</v>
       </c>
     </row>
     <row r="245">
@@ -7451,7 +7451,7 @@
         <v>191263</v>
       </c>
       <c r="E245" t="n">
-        <v>2.81967992394869</v>
+        <v>2.62317522522818</v>
       </c>
     </row>
     <row r="246">
@@ -7468,7 +7468,7 @@
         <v>126588</v>
       </c>
       <c r="E246" t="n">
-        <v>3.22892114426804</v>
+        <v>2.99368017499655</v>
       </c>
     </row>
     <row r="247">
@@ -7485,7 +7485,7 @@
         <v>390599</v>
       </c>
       <c r="E247" t="n">
-        <v>3.18532648239656</v>
+        <v>2.95665410046916</v>
       </c>
     </row>
     <row r="248">
@@ -7502,7 +7502,7 @@
         <v>321959</v>
       </c>
       <c r="E248" t="n">
-        <v>3.33982540557613</v>
+        <v>3.12387720524309</v>
       </c>
     </row>
     <row r="249">
@@ -7519,7 +7519,7 @@
         <v>621337</v>
       </c>
       <c r="E249" t="n">
-        <v>3.48846497982761</v>
+        <v>3.25421875168515</v>
       </c>
     </row>
     <row r="250">
@@ -7536,7 +7536,7 @@
         <v>225370</v>
       </c>
       <c r="E250" t="n">
-        <v>3.88112736850877</v>
+        <v>3.70263795853871</v>
       </c>
     </row>
     <row r="251">
@@ -7553,7 +7553,7 @@
         <v>67464</v>
       </c>
       <c r="E251" t="n">
-        <v>3.60008622547868</v>
+        <v>3.41049517768478</v>
       </c>
     </row>
     <row r="252">
@@ -7570,7 +7570,7 @@
         <v>126847</v>
       </c>
       <c r="E252" t="n">
-        <v>3.53263306617395</v>
+        <v>3.3175403439991</v>
       </c>
     </row>
     <row r="253">
@@ -7587,7 +7587,7 @@
         <v>77125</v>
       </c>
       <c r="E253" t="n">
-        <v>3.69788810477697</v>
+        <v>3.48025729869131</v>
       </c>
     </row>
     <row r="254">
@@ -7604,7 +7604,7 @@
         <v>393292</v>
       </c>
       <c r="E254" t="n">
-        <v>3.88320535454742</v>
+        <v>3.70655912048738</v>
       </c>
     </row>
     <row r="255">
@@ -7621,7 +7621,7 @@
         <v>191715</v>
       </c>
       <c r="E255" t="n">
-        <v>3.95585995929027</v>
+        <v>3.75719492102105</v>
       </c>
     </row>
     <row r="256">
@@ -7638,7 +7638,7 @@
         <v>66878</v>
       </c>
       <c r="E256" t="n">
-        <v>3.00613688277296</v>
+        <v>2.78070532629482</v>
       </c>
     </row>
     <row r="257">
@@ -7655,7 +7655,7 @@
         <v>611648</v>
       </c>
       <c r="E257" t="n">
-        <v>3.90765533475626</v>
+        <v>3.73932217770639</v>
       </c>
     </row>
     <row r="258">
@@ -7672,7 +7672,7 @@
         <v>683015</v>
       </c>
       <c r="E258" t="n">
-        <v>3.44518507732156</v>
+        <v>3.30361315962375</v>
       </c>
     </row>
     <row r="259">
@@ -7689,7 +7689,7 @@
         <v>95664</v>
       </c>
       <c r="E259" t="n">
-        <v>3.3854102408195</v>
+        <v>3.20227637235682</v>
       </c>
     </row>
     <row r="260">
@@ -7706,7 +7706,7 @@
         <v>113631</v>
       </c>
       <c r="E260" t="n">
-        <v>2.98242090556422</v>
+        <v>2.79053282677542</v>
       </c>
     </row>
     <row r="261">
@@ -7723,7 +7723,7 @@
         <v>89415</v>
       </c>
       <c r="E261" t="n">
-        <v>3.35785733335477</v>
+        <v>3.12989474062389</v>
       </c>
     </row>
     <row r="262">
@@ -7740,7 +7740,7 @@
         <v>111343</v>
       </c>
       <c r="E262" t="n">
-        <v>3.19211088342031</v>
+        <v>2.95081865627776</v>
       </c>
     </row>
     <row r="263">
@@ -7757,7 +7757,7 @@
         <v>94064</v>
       </c>
       <c r="E263" t="n">
-        <v>3.44147320756191</v>
+        <v>3.22512321041812</v>
       </c>
     </row>
     <row r="264">
@@ -7774,7 +7774,7 @@
         <v>95110</v>
       </c>
       <c r="E264" t="n">
-        <v>3.46013304503474</v>
+        <v>3.24999413447368</v>
       </c>
     </row>
     <row r="265">
@@ -7791,7 +7791,7 @@
         <v>88989</v>
       </c>
       <c r="E265" t="n">
-        <v>2.93386336975702</v>
+        <v>2.73602774553818</v>
       </c>
     </row>
     <row r="266">
@@ -7808,7 +7808,7 @@
         <v>94165</v>
       </c>
       <c r="E266" t="n">
-        <v>2.97064956129276</v>
+        <v>2.76326407586765</v>
       </c>
     </row>
     <row r="267">
@@ -7825,7 +7825,7 @@
         <v>81361</v>
       </c>
       <c r="E267" t="n">
-        <v>2.98311581204191</v>
+        <v>2.78097190866447</v>
       </c>
     </row>
     <row r="268">
@@ -7842,7 +7842,7 @@
         <v>154763</v>
       </c>
       <c r="E268" t="n">
-        <v>3.77662134258786</v>
+        <v>3.59892933602769</v>
       </c>
     </row>
     <row r="269">
@@ -7859,7 +7859,7 @@
         <v>185685</v>
       </c>
       <c r="E269" t="n">
-        <v>3.32054295724632</v>
+        <v>3.10981501489812</v>
       </c>
     </row>
     <row r="270">
@@ -7876,7 +7876,7 @@
         <v>121461</v>
       </c>
       <c r="E270" t="n">
-        <v>2.94005105925448</v>
+        <v>2.76133448078057</v>
       </c>
     </row>
     <row r="271">
@@ -7893,7 +7893,7 @@
         <v>94497</v>
       </c>
       <c r="E271" t="n">
-        <v>3.56476169101248</v>
+        <v>3.35846584866912</v>
       </c>
     </row>
     <row r="272">
@@ -7910,7 +7910,7 @@
         <v>673103</v>
       </c>
       <c r="E272" t="n">
-        <v>4.32614861306698</v>
+        <v>4.11705434854534</v>
       </c>
     </row>
     <row r="273">
@@ -7927,7 +7927,7 @@
         <v>81048</v>
       </c>
       <c r="E273" t="n">
-        <v>2.98664413717463</v>
+        <v>2.78019774246383</v>
       </c>
     </row>
     <row r="274">
@@ -7944,7 +7944,7 @@
         <v>198811</v>
       </c>
       <c r="E274" t="n">
-        <v>3.33911432705145</v>
+        <v>3.12024924121923</v>
       </c>
     </row>
     <row r="275">
@@ -7961,7 +7961,7 @@
         <v>75802</v>
       </c>
       <c r="E275" t="n">
-        <v>3.45526441904723</v>
+        <v>3.2508524047409</v>
       </c>
     </row>
     <row r="276">
@@ -7978,7 +7978,7 @@
         <v>115451</v>
       </c>
       <c r="E276" t="n">
-        <v>3.53378841294109</v>
+        <v>3.35643512494296</v>
       </c>
     </row>
     <row r="277">
@@ -7995,7 +7995,7 @@
         <v>94108</v>
       </c>
       <c r="E277" t="n">
-        <v>3.30021490323418</v>
+        <v>3.12597573944539</v>
       </c>
     </row>
     <row r="278">
@@ -8012,7 +8012,7 @@
         <v>74198</v>
       </c>
       <c r="E278" t="n">
-        <v>2.73378673550691</v>
+        <v>2.53462561790658</v>
       </c>
     </row>
     <row r="279">
@@ -8029,7 +8029,7 @@
         <v>73203</v>
       </c>
       <c r="E279" t="n">
-        <v>3.60163881774612</v>
+        <v>3.39800746141678</v>
       </c>
     </row>
     <row r="280">
@@ -8046,7 +8046,7 @@
         <v>132628</v>
       </c>
       <c r="E280" t="n">
-        <v>3.02924757830877</v>
+        <v>2.76841808050097</v>
       </c>
     </row>
     <row r="281">
@@ -8063,7 +8063,7 @@
         <v>83826</v>
       </c>
       <c r="E281" t="n">
-        <v>2.59153762610613</v>
+        <v>2.39697413348342</v>
       </c>
     </row>
     <row r="282">
@@ -8080,7 +8080,7 @@
         <v>135029</v>
       </c>
       <c r="E282" t="n">
-        <v>3.25364562155579</v>
+        <v>2.98167625076857</v>
       </c>
     </row>
     <row r="283">
@@ -8097,7 +8097,7 @@
         <v>81750</v>
       </c>
       <c r="E283" t="n">
-        <v>3.47912584255617</v>
+        <v>3.29784163371188</v>
       </c>
     </row>
     <row r="284">
@@ -8114,7 +8114,7 @@
         <v>75938</v>
       </c>
       <c r="E284" t="n">
-        <v>3.18806156637043</v>
+        <v>2.97420640274614</v>
       </c>
     </row>
     <row r="285">
@@ -8131,7 +8131,7 @@
         <v>85863</v>
       </c>
       <c r="E285" t="n">
-        <v>2.96735845325425</v>
+        <v>2.78647549926804</v>
       </c>
     </row>
     <row r="286">
@@ -8148,7 +8148,7 @@
         <v>80573</v>
       </c>
       <c r="E286" t="n">
-        <v>3.09165655791646</v>
+        <v>2.92048121048855</v>
       </c>
     </row>
     <row r="287">
@@ -8165,7 +8165,7 @@
         <v>86048</v>
       </c>
       <c r="E287" t="n">
-        <v>2.89163588599032</v>
+        <v>2.6641243489747</v>
       </c>
     </row>
     <row r="288">
@@ -8182,7 +8182,7 @@
         <v>422326</v>
       </c>
       <c r="E288" t="n">
-        <v>3.06308459607667</v>
+        <v>2.88151219858436</v>
       </c>
     </row>
     <row r="289">
@@ -8199,7 +8199,7 @@
         <v>78388</v>
       </c>
       <c r="E289" t="n">
-        <v>2.95631220545763</v>
+        <v>2.7854597379771</v>
       </c>
     </row>
     <row r="290">
@@ -8216,7 +8216,7 @@
         <v>115733</v>
       </c>
       <c r="E290" t="n">
-        <v>2.87198057607613</v>
+        <v>2.67787390360928</v>
       </c>
     </row>
     <row r="291">
@@ -8233,7 +8233,7 @@
         <v>306604</v>
       </c>
       <c r="E291" t="n">
-        <v>3.27148128335179</v>
+        <v>3.08645261363673</v>
       </c>
     </row>
     <row r="292">
@@ -8250,7 +8250,7 @@
         <v>71812</v>
       </c>
       <c r="E292" t="n">
-        <v>3.6469507206702</v>
+        <v>3.46189701336532</v>
       </c>
     </row>
     <row r="293">
@@ -8267,7 +8267,7 @@
         <v>167250</v>
       </c>
       <c r="E293" t="n">
-        <v>4.19539990842513</v>
+        <v>4.01258835939194</v>
       </c>
     </row>
     <row r="294">
@@ -8284,7 +8284,7 @@
         <v>121720</v>
       </c>
       <c r="E294" t="n">
-        <v>2.93253348702436</v>
+        <v>2.74191334122731</v>
       </c>
     </row>
     <row r="295">
@@ -8301,7 +8301,7 @@
         <v>117308</v>
       </c>
       <c r="E295" t="n">
-        <v>3.36833753167448</v>
+        <v>3.18317443156872</v>
       </c>
     </row>
     <row r="296">
@@ -8318,7 +8318,7 @@
         <v>488825</v>
       </c>
       <c r="E296" t="n">
-        <v>3.61410970122327</v>
+        <v>3.43501776165403</v>
       </c>
     </row>
     <row r="297">
@@ -8335,7 +8335,7 @@
         <v>97101</v>
       </c>
       <c r="E297" t="n">
-        <v>3.23169428713207</v>
+        <v>3.0743354963377</v>
       </c>
     </row>
     <row r="298">
@@ -8352,7 +8352,7 @@
         <v>87578</v>
       </c>
       <c r="E298" t="n">
-        <v>2.67044537856135</v>
+        <v>2.46435730210736</v>
       </c>
     </row>
     <row r="299">
@@ -8369,7 +8369,7 @@
         <v>76643</v>
       </c>
       <c r="E299" t="n">
-        <v>3.31042765783788</v>
+        <v>3.08296625194623</v>
       </c>
     </row>
     <row r="300">
@@ -8386,7 +8386,7 @@
         <v>308626</v>
       </c>
       <c r="E300" t="n">
-        <v>3.76167365018384</v>
+        <v>3.5811937627781</v>
       </c>
     </row>
     <row r="301">
@@ -8403,7 +8403,7 @@
         <v>167376</v>
       </c>
       <c r="E301" t="n">
-        <v>3.32333925871894</v>
+        <v>3.10306152015576</v>
       </c>
     </row>
     <row r="302">
@@ -8420,7 +8420,7 @@
         <v>109642</v>
       </c>
       <c r="E302" t="n">
-        <v>2.86914947774196</v>
+        <v>2.64375934323575</v>
       </c>
     </row>
     <row r="303">
@@ -8437,7 +8437,7 @@
         <v>73338</v>
       </c>
       <c r="E303" t="n">
-        <v>2.95433658973276</v>
+        <v>2.76290762335031</v>
       </c>
     </row>
     <row r="304">
@@ -8454,7 +8454,7 @@
         <v>284734</v>
       </c>
       <c r="E304" t="n">
-        <v>2.98407922595383</v>
+        <v>2.78149041466468</v>
       </c>
     </row>
     <row r="305">
@@ -8471,7 +8471,7 @@
         <v>466903</v>
       </c>
       <c r="E305" t="n">
-        <v>3.1657155289016</v>
+        <v>2.94953028626407</v>
       </c>
     </row>
     <row r="306">
@@ -8488,7 +8488,7 @@
         <v>302535</v>
       </c>
       <c r="E306" t="n">
-        <v>3.29366704203343</v>
+        <v>3.13362451980627</v>
       </c>
     </row>
     <row r="307">
@@ -8505,7 +8505,7 @@
         <v>641708</v>
       </c>
       <c r="E307" t="n">
-        <v>3.48345717268743</v>
+        <v>3.31396178680507</v>
       </c>
     </row>
     <row r="308">
@@ -8522,7 +8522,7 @@
         <v>242949</v>
       </c>
       <c r="E308" t="n">
-        <v>3.57736446647936</v>
+        <v>3.42516364082532</v>
       </c>
     </row>
     <row r="309">
@@ -8539,7 +8539,7 @@
         <v>248860</v>
       </c>
       <c r="E309" t="n">
-        <v>3.38715679861191</v>
+        <v>3.22777878344259</v>
       </c>
     </row>
     <row r="310">
@@ -8556,7 +8556,7 @@
         <v>100878</v>
       </c>
       <c r="E310" t="n">
-        <v>3.42571633007526</v>
+        <v>3.26465297609452</v>
       </c>
     </row>
     <row r="311">
@@ -8573,7 +8573,7 @@
         <v>111194</v>
       </c>
       <c r="E311" t="n">
-        <v>3.21929107076397</v>
+        <v>2.96454143838867</v>
       </c>
     </row>
     <row r="312">
@@ -8590,7 +8590,7 @@
         <v>74534</v>
       </c>
       <c r="E312" t="n">
-        <v>3.82035782865022</v>
+        <v>3.59436359279471</v>
       </c>
     </row>
     <row r="313">
@@ -8607,7 +8607,7 @@
         <v>86615</v>
       </c>
       <c r="E313" t="n">
-        <v>3.54902479613366</v>
+        <v>3.38785287179417</v>
       </c>
     </row>
     <row r="314">
@@ -8624,7 +8624,7 @@
         <v>130222</v>
       </c>
       <c r="E314" t="n">
-        <v>3.81622657303631</v>
+        <v>3.64807792417294</v>
       </c>
     </row>
     <row r="315">
@@ -8641,7 +8641,7 @@
         <v>270750</v>
       </c>
       <c r="E315" t="n">
-        <v>3.53805129341427</v>
+        <v>3.38372556023408</v>
       </c>
     </row>
     <row r="316">
@@ -8658,7 +8658,7 @@
         <v>285156</v>
       </c>
       <c r="E316" t="n">
-        <v>3.92796817055416</v>
+        <v>3.74618738319467</v>
       </c>
     </row>
     <row r="317">
@@ -8675,7 +8675,7 @@
         <v>71245</v>
       </c>
       <c r="E317" t="n">
-        <v>3.80741334400351</v>
+        <v>3.63234758477294</v>
       </c>
     </row>
     <row r="318">
@@ -8692,7 +8692,7 @@
         <v>148678</v>
       </c>
       <c r="E318" t="n">
-        <v>3.85651240601499</v>
+        <v>3.67053377774344</v>
       </c>
     </row>
     <row r="319">
@@ -8709,7 +8709,7 @@
         <v>84971</v>
       </c>
       <c r="E319" t="n">
-        <v>3.92595010409702</v>
+        <v>3.69306660817464</v>
       </c>
     </row>
     <row r="320">
@@ -8726,7 +8726,7 @@
         <v>70409</v>
       </c>
       <c r="E320" t="n">
-        <v>3.94481171560885</v>
+        <v>3.75949941855966</v>
       </c>
     </row>
     <row r="321">
@@ -8743,7 +8743,7 @@
         <v>558558</v>
       </c>
       <c r="E321" t="n">
-        <v>3.47564219385381</v>
+        <v>3.32608883647659</v>
       </c>
     </row>
     <row r="322">
@@ -8760,7 +8760,7 @@
         <v>101706</v>
       </c>
       <c r="E322" t="n">
-        <v>3.63825648133989</v>
+        <v>3.47921343664594</v>
       </c>
     </row>
     <row r="323">
@@ -8777,7 +8777,7 @@
         <v>96168</v>
       </c>
       <c r="E323" t="n">
-        <v>3.16535198365649</v>
+        <v>2.94574293535951</v>
       </c>
     </row>
     <row r="324">
@@ -8794,7 +8794,7 @@
         <v>83763</v>
       </c>
       <c r="E324" t="n">
-        <v>3.19018645946812</v>
+        <v>3.0126770570824</v>
       </c>
     </row>
     <row r="325">
@@ -8811,7 +8811,7 @@
         <v>98252</v>
       </c>
       <c r="E325" t="n">
-        <v>3.2044639113831</v>
+        <v>3.01297568523114</v>
       </c>
     </row>
     <row r="326">
@@ -8828,7 +8828,7 @@
         <v>258592</v>
       </c>
       <c r="E326" t="n">
-        <v>3.45571931546376</v>
+        <v>3.22293987399321</v>
       </c>
     </row>
     <row r="327">
@@ -8845,7 +8845,7 @@
         <v>68702</v>
       </c>
       <c r="E327" t="n">
-        <v>3.82960887004547</v>
+        <v>3.62889004051342</v>
       </c>
     </row>
     <row r="328">
@@ -8862,7 +8862,7 @@
         <v>79956</v>
       </c>
       <c r="E328" t="n">
-        <v>3.21093937534599</v>
+        <v>3.00913634473035</v>
       </c>
     </row>
     <row r="329">
@@ -8879,7 +8879,7 @@
         <v>8622698</v>
       </c>
       <c r="E329" t="n">
-        <v>3.57411111924458</v>
+        <v>3.42281079070727</v>
       </c>
     </row>
     <row r="330">
@@ -8896,7 +8896,7 @@
         <v>208049</v>
       </c>
       <c r="E330" t="n">
-        <v>3.63238740215047</v>
+        <v>3.42009193543636</v>
       </c>
     </row>
     <row r="331">
@@ -8913,7 +8913,7 @@
         <v>65626</v>
       </c>
       <c r="E331" t="n">
-        <v>3.40008948680177</v>
+        <v>3.16487740094077</v>
       </c>
     </row>
     <row r="332">
@@ -8930,7 +8930,7 @@
         <v>143398</v>
       </c>
       <c r="E332" t="n">
-        <v>3.32641780320087</v>
+        <v>3.11109377962829</v>
       </c>
     </row>
     <row r="333">
@@ -8947,7 +8947,7 @@
         <v>202008</v>
       </c>
       <c r="E333" t="n">
-        <v>3.37322686256941</v>
+        <v>3.16908830743822</v>
       </c>
     </row>
     <row r="334">
@@ -8964,7 +8964,7 @@
         <v>91916</v>
       </c>
       <c r="E334" t="n">
-        <v>3.26792150965494</v>
+        <v>3.05892510800452</v>
       </c>
     </row>
     <row r="335">
@@ -8981,7 +8981,7 @@
         <v>166032</v>
       </c>
       <c r="E335" t="n">
-        <v>2.90350010997913</v>
+        <v>2.69084285458565</v>
       </c>
     </row>
     <row r="336">
@@ -8998,7 +8998,7 @@
         <v>859052</v>
       </c>
       <c r="E336" t="n">
-        <v>3.45706297658156</v>
+        <v>3.26605246070064</v>
       </c>
     </row>
     <row r="337">
@@ -9015,7 +9015,7 @@
         <v>92072</v>
       </c>
       <c r="E337" t="n">
-        <v>3.19700229379047</v>
+        <v>2.98693133940206</v>
       </c>
     </row>
     <row r="338">
@@ -9032,7 +9032,7 @@
         <v>267932</v>
       </c>
       <c r="E338" t="n">
-        <v>3.67416002276756</v>
+        <v>3.5249965330462</v>
       </c>
     </row>
     <row r="339">
@@ -9049,7 +9049,7 @@
         <v>209913</v>
       </c>
       <c r="E339" t="n">
-        <v>3.63511393465042</v>
+        <v>3.47401829394959</v>
       </c>
     </row>
     <row r="340">
@@ -9066,7 +9066,7 @@
         <v>76606</v>
       </c>
       <c r="E340" t="n">
-        <v>3.75822324618805</v>
+        <v>3.57427227345985</v>
       </c>
     </row>
     <row r="341">
@@ -9083,7 +9083,7 @@
         <v>290201</v>
       </c>
       <c r="E341" t="n">
-        <v>3.63883130540556</v>
+        <v>3.48166383339897</v>
       </c>
     </row>
     <row r="342">
@@ -9100,7 +9100,7 @@
         <v>92171</v>
       </c>
       <c r="E342" t="n">
-        <v>3.48143732425898</v>
+        <v>3.33895905897606</v>
       </c>
     </row>
     <row r="343">
@@ -9117,7 +9117,7 @@
         <v>111213</v>
       </c>
       <c r="E343" t="n">
-        <v>3.63156091529416</v>
+        <v>3.46726401204621</v>
       </c>
     </row>
     <row r="344">
@@ -9134,7 +9134,7 @@
         <v>72448</v>
       </c>
       <c r="E344" t="n">
-        <v>3.41071982491806</v>
+        <v>3.21165208493568</v>
       </c>
     </row>
     <row r="345">
@@ -9151,7 +9151,7 @@
         <v>464972</v>
       </c>
       <c r="E345" t="n">
-        <v>3.09725684255285</v>
+        <v>2.88329445732258</v>
       </c>
     </row>
     <row r="346">
@@ -9168,7 +9168,7 @@
         <v>119048</v>
       </c>
       <c r="E346" t="n">
-        <v>3.4038407705397</v>
+        <v>3.20357835039541</v>
       </c>
     </row>
     <row r="347">
@@ -9185,7 +9185,7 @@
         <v>244592</v>
       </c>
       <c r="E347" t="n">
-        <v>3.63945244194829</v>
+        <v>3.46501572354292</v>
       </c>
     </row>
     <row r="348">
@@ -9202,7 +9202,7 @@
         <v>123590</v>
       </c>
       <c r="E348" t="n">
-        <v>3.0482578562055</v>
+        <v>2.84186553036152</v>
       </c>
     </row>
     <row r="349">
@@ -9219,7 +9219,7 @@
         <v>197849</v>
       </c>
       <c r="E349" t="n">
-        <v>3.43481931675145</v>
+        <v>3.19428356670302</v>
       </c>
     </row>
     <row r="350">
@@ -9236,7 +9236,7 @@
         <v>70893</v>
       </c>
       <c r="E350" t="n">
-        <v>3.48200947626483</v>
+        <v>3.22821923232455</v>
       </c>
     </row>
     <row r="351">
@@ -9253,7 +9253,7 @@
         <v>301305</v>
       </c>
       <c r="E351" t="n">
-        <v>3.75254120557006</v>
+        <v>3.56787905432742</v>
       </c>
     </row>
     <row r="352">
@@ -9270,7 +9270,7 @@
         <v>385552</v>
       </c>
       <c r="E352" t="n">
-        <v>3.97985304813075</v>
+        <v>3.77451029922776</v>
       </c>
     </row>
     <row r="353">
@@ -9287,7 +9287,7 @@
         <v>881901</v>
       </c>
       <c r="E353" t="n">
-        <v>3.57614482998735</v>
+        <v>3.40249399119782</v>
       </c>
     </row>
     <row r="354">
@@ -9304,7 +9304,7 @@
         <v>140379</v>
       </c>
       <c r="E354" t="n">
-        <v>3.78328730106247</v>
+        <v>3.56887592124124</v>
       </c>
     </row>
     <row r="355">
@@ -9321,7 +9321,7 @@
         <v>79159</v>
       </c>
       <c r="E355" t="n">
-        <v>3.38246835270889</v>
+        <v>3.19777287860964</v>
       </c>
     </row>
     <row r="356">
@@ -9338,7 +9338,7 @@
         <v>276494</v>
       </c>
       <c r="E356" t="n">
-        <v>3.74787759662521</v>
+        <v>3.539476564342</v>
       </c>
     </row>
     <row r="357">
@@ -9355,7 +9355,7 @@
         <v>64585</v>
       </c>
       <c r="E357" t="n">
-        <v>3.90663269103854</v>
+        <v>3.65060533187525</v>
       </c>
     </row>
     <row r="358">
@@ -9372,7 +9372,7 @@
         <v>110468</v>
       </c>
       <c r="E358" t="n">
-        <v>3.25230826589482</v>
+        <v>3.04198545995839</v>
       </c>
     </row>
     <row r="359">
@@ -9389,7 +9389,7 @@
         <v>91936</v>
       </c>
       <c r="E359" t="n">
-        <v>3.21086787454646</v>
+        <v>3.0517558359589</v>
       </c>
     </row>
     <row r="360">
@@ -9406,7 +9406,7 @@
         <v>93717</v>
       </c>
       <c r="E360" t="n">
-        <v>3.51519333494916</v>
+        <v>3.34111857618696</v>
       </c>
     </row>
     <row r="361">
@@ -9423,7 +9423,7 @@
         <v>122842</v>
       </c>
       <c r="E361" t="n">
-        <v>2.97667826874719</v>
+        <v>2.74249594894548</v>
       </c>
     </row>
     <row r="362">
@@ -9440,7 +9440,7 @@
         <v>643574</v>
       </c>
       <c r="E362" t="n">
-        <v>3.59582403271431</v>
+        <v>3.40691509068992</v>
       </c>
     </row>
     <row r="363">
@@ -9457,7 +9457,7 @@
         <v>402227</v>
       </c>
       <c r="E363" t="n">
-        <v>3.47925614975997</v>
+        <v>3.26179459124139</v>
       </c>
     </row>
     <row r="364">
@@ -9474,7 +9474,7 @@
         <v>97529</v>
       </c>
       <c r="E364" t="n">
-        <v>3.00404258388657</v>
+        <v>2.82043181831772</v>
       </c>
     </row>
     <row r="365">
@@ -9491,7 +9491,7 @@
         <v>94527</v>
       </c>
       <c r="E365" t="n">
-        <v>2.79814311969509</v>
+        <v>2.5839936655281</v>
       </c>
     </row>
     <row r="366">
@@ -9508,7 +9508,7 @@
         <v>168909</v>
       </c>
       <c r="E366" t="n">
-        <v>3.23225406671492</v>
+        <v>3.0402988133699</v>
       </c>
     </row>
     <row r="367">
@@ -9525,7 +9525,7 @@
         <v>111039</v>
       </c>
       <c r="E367" t="n">
-        <v>3.42031135782117</v>
+        <v>3.25872451707141</v>
       </c>
     </row>
     <row r="368">
@@ -9542,7 +9542,7 @@
         <v>106903</v>
       </c>
       <c r="E368" t="n">
-        <v>2.98747740069543</v>
+        <v>2.79929262977068</v>
       </c>
     </row>
     <row r="369">
@@ -9559,7 +9559,7 @@
         <v>81777</v>
       </c>
       <c r="E369" t="n">
-        <v>3.37535650392041</v>
+        <v>3.16822621112781</v>
       </c>
     </row>
     <row r="370">
@@ -9576,7 +9576,7 @@
         <v>648121</v>
       </c>
       <c r="E370" t="n">
-        <v>3.35153638995026</v>
+        <v>3.19716984341856</v>
       </c>
     </row>
     <row r="371">
@@ -9593,7 +9593,7 @@
         <v>169790</v>
       </c>
       <c r="E371" t="n">
-        <v>3.44082911386031</v>
+        <v>3.26303256994037</v>
       </c>
     </row>
     <row r="372">
@@ -9610,7 +9610,7 @@
         <v>121278</v>
       </c>
       <c r="E372" t="n">
-        <v>3.74163048568025</v>
+        <v>3.51229379559417</v>
       </c>
     </row>
     <row r="373">
@@ -9627,7 +9627,7 @@
         <v>76469</v>
       </c>
       <c r="E373" t="n">
-        <v>3.44662782856897</v>
+        <v>3.23241921926202</v>
       </c>
     </row>
     <row r="374">
@@ -9644,7 +9644,7 @@
         <v>97369</v>
       </c>
       <c r="E374" t="n">
-        <v>3.51700478752785</v>
+        <v>3.2708421763851</v>
       </c>
     </row>
     <row r="375">
@@ -9661,7 +9661,7 @@
         <v>1580863</v>
       </c>
       <c r="E375" t="n">
-        <v>3.76257398891305</v>
+        <v>3.58674093009059</v>
       </c>
     </row>
     <row r="376">
@@ -9678,7 +9678,7 @@
         <v>302414</v>
       </c>
       <c r="E376" t="n">
-        <v>3.19263495316128</v>
+        <v>2.95221025407663</v>
       </c>
     </row>
     <row r="377">
@@ -9695,7 +9695,7 @@
         <v>88418</v>
       </c>
       <c r="E377" t="n">
-        <v>3.87973512953158</v>
+        <v>3.65068148655791</v>
       </c>
     </row>
     <row r="378">
@@ -9712,7 +9712,7 @@
         <v>77597</v>
       </c>
       <c r="E378" t="n">
-        <v>3.26723936028721</v>
+        <v>3.02659824033376</v>
       </c>
     </row>
     <row r="379">
@@ -9729,7 +9729,7 @@
         <v>81192</v>
       </c>
       <c r="E379" t="n">
-        <v>3.4200855960386</v>
+        <v>3.24587470558134</v>
       </c>
     </row>
     <row r="380">
@@ -9746,7 +9746,7 @@
         <v>72006</v>
       </c>
       <c r="E380" t="n">
-        <v>3.58806129722044</v>
+        <v>3.41289935130562</v>
       </c>
     </row>
     <row r="381">
@@ -9763,7 +9763,7 @@
         <v>180388</v>
       </c>
       <c r="E381" t="n">
-        <v>3.6117806735442</v>
+        <v>3.44727135562509</v>
       </c>
     </row>
     <row r="382">
@@ -9780,7 +9780,7 @@
         <v>80873</v>
       </c>
       <c r="E382" t="n">
-        <v>3.10875246081108</v>
+        <v>2.85634566782182</v>
       </c>
     </row>
     <row r="383">
@@ -9797,7 +9797,7 @@
         <v>139906</v>
       </c>
       <c r="E383" t="n">
-        <v>3.22901401133478</v>
+        <v>3.03150382418705</v>
       </c>
     </row>
     <row r="384">
@@ -9814,7 +9814,7 @@
         <v>133578</v>
       </c>
       <c r="E384" t="n">
-        <v>3.45046617943389</v>
+        <v>3.25167603188157</v>
       </c>
     </row>
     <row r="385">
@@ -9831,7 +9831,7 @@
         <v>112742</v>
       </c>
       <c r="E385" t="n">
-        <v>3.65382614187936</v>
+        <v>3.44205403398924</v>
       </c>
     </row>
     <row r="386">
@@ -9848,7 +9848,7 @@
         <v>73064</v>
       </c>
       <c r="E386" t="n">
-        <v>3.25563529839917</v>
+        <v>3.04779806874866</v>
       </c>
     </row>
     <row r="387">
@@ -9865,7 +9865,7 @@
         <v>74418</v>
       </c>
       <c r="E387" t="n">
-        <v>2.9746842360411</v>
+        <v>2.72153534316796</v>
       </c>
     </row>
     <row r="388">
@@ -9882,7 +9882,7 @@
         <v>176898</v>
       </c>
       <c r="E388" t="n">
-        <v>3.0927464684102</v>
+        <v>2.8817783758343</v>
       </c>
     </row>
     <row r="389">
@@ -9899,7 +9899,7 @@
         <v>179130</v>
       </c>
       <c r="E389" t="n">
-        <v>3.63254024011217</v>
+        <v>3.40533677197262</v>
       </c>
     </row>
     <row r="390">
@@ -9916,7 +9916,7 @@
         <v>153210</v>
       </c>
       <c r="E390" t="n">
-        <v>3.36226497988712</v>
+        <v>3.15757409027308</v>
       </c>
     </row>
     <row r="391">
@@ -9933,7 +9933,7 @@
         <v>187344</v>
       </c>
       <c r="E391" t="n">
-        <v>3.26457953893296</v>
+        <v>3.03150741339043</v>
       </c>
     </row>
     <row r="392">
@@ -9950,7 +9950,7 @@
         <v>652231</v>
       </c>
       <c r="E392" t="n">
-        <v>3.99066290638204</v>
+        <v>3.80198381179834</v>
       </c>
     </row>
     <row r="393">
@@ -9967,7 +9967,7 @@
         <v>136372</v>
       </c>
       <c r="E393" t="n">
-        <v>3.10974080141362</v>
+        <v>2.87151804497513</v>
       </c>
     </row>
     <row r="394">
@@ -9984,7 +9984,7 @@
         <v>665967</v>
       </c>
       <c r="E394" t="n">
-        <v>3.52119818350457</v>
+        <v>3.34686882699382</v>
       </c>
     </row>
     <row r="395">
@@ -10001,7 +10001,7 @@
         <v>123304</v>
       </c>
       <c r="E395" t="n">
-        <v>3.35809476629407</v>
+        <v>3.13978340517368</v>
       </c>
     </row>
     <row r="396">
@@ -10018,7 +10018,7 @@
         <v>100679</v>
       </c>
       <c r="E396" t="n">
-        <v>2.58191233325771</v>
+        <v>2.39373811233413</v>
       </c>
     </row>
     <row r="397">
@@ -10035,7 +10035,7 @@
         <v>200558</v>
       </c>
       <c r="E397" t="n">
-        <v>3.45646822774287</v>
+        <v>3.26979595547583</v>
       </c>
     </row>
     <row r="398">
@@ -10052,7 +10052,7 @@
         <v>396407</v>
       </c>
       <c r="E398" t="n">
-        <v>3.46744666005645</v>
+        <v>3.2667915673783</v>
       </c>
     </row>
     <row r="399">
@@ -10069,7 +10069,7 @@
         <v>950714</v>
       </c>
       <c r="E399" t="n">
-        <v>3.275285026789</v>
+        <v>3.09763777942556</v>
       </c>
     </row>
     <row r="400">
@@ -10086,7 +10086,7 @@
         <v>77862</v>
       </c>
       <c r="E400" t="n">
-        <v>3.68236155373193</v>
+        <v>3.5139272324532</v>
       </c>
     </row>
     <row r="401">
@@ -10103,7 +10103,7 @@
         <v>119126</v>
       </c>
       <c r="E401" t="n">
-        <v>3.76717022857503</v>
+        <v>3.57490643925361</v>
       </c>
     </row>
     <row r="402">
@@ -10120,7 +10120,7 @@
         <v>84029</v>
       </c>
       <c r="E402" t="n">
-        <v>3.70474916537553</v>
+        <v>3.53505464669663</v>
       </c>
     </row>
     <row r="403">
@@ -10137,7 +10137,7 @@
         <v>135709</v>
       </c>
       <c r="E403" t="n">
-        <v>3.08727750960232</v>
+        <v>2.85613516394537</v>
       </c>
     </row>
     <row r="404">
@@ -10154,7 +10154,7 @@
         <v>113563</v>
       </c>
       <c r="E404" t="n">
-        <v>3.15327304458315</v>
+        <v>3.02313503738467</v>
       </c>
     </row>
     <row r="405">
@@ -10171,7 +10171,7 @@
         <v>325600</v>
       </c>
       <c r="E405" t="n">
-        <v>3.70560577377171</v>
+        <v>3.52140090776327</v>
       </c>
     </row>
     <row r="406">
@@ -10188,7 +10188,7 @@
         <v>1341103</v>
       </c>
       <c r="E406" t="n">
-        <v>3.68373321598408</v>
+        <v>3.50649306240623</v>
       </c>
     </row>
     <row r="407">
@@ -10205,7 +10205,7 @@
         <v>136266</v>
       </c>
       <c r="E407" t="n">
-        <v>3.01493069626519</v>
+        <v>2.79209549521902</v>
       </c>
     </row>
     <row r="408">
@@ -10222,7 +10222,7 @@
         <v>90271</v>
       </c>
       <c r="E408" t="n">
-        <v>3.80276634202139</v>
+        <v>3.63692371299295</v>
       </c>
     </row>
     <row r="409">
@@ -10239,7 +10239,7 @@
         <v>683583</v>
       </c>
       <c r="E409" t="n">
-        <v>3.96573843607389</v>
+        <v>3.79621333184606</v>
       </c>
     </row>
     <row r="410">
@@ -10256,7 +10256,7 @@
         <v>876060</v>
       </c>
       <c r="E410" t="n">
-        <v>3.51026668980976</v>
+        <v>3.29953298211932</v>
       </c>
     </row>
     <row r="411">
@@ -10273,7 +10273,7 @@
         <v>177281</v>
       </c>
       <c r="E411" t="n">
-        <v>2.53521098834305</v>
+        <v>2.35600538268402</v>
       </c>
     </row>
     <row r="412">
@@ -10290,7 +10290,7 @@
         <v>237607</v>
       </c>
       <c r="E412" t="n">
-        <v>3.64377196509515</v>
+        <v>3.46843594520162</v>
       </c>
     </row>
     <row r="413">
@@ -10307,7 +10307,7 @@
         <v>193812</v>
       </c>
       <c r="E413" t="n">
-        <v>3.65072490606108</v>
+        <v>3.49380749715445</v>
       </c>
     </row>
     <row r="414">
@@ -10324,7 +10324,7 @@
         <v>2313230</v>
       </c>
       <c r="E414" t="n">
-        <v>3.70179622560272</v>
+        <v>3.52925806526023</v>
       </c>
     </row>
     <row r="415">
@@ -10341,7 +10341,7 @@
         <v>240369</v>
       </c>
       <c r="E415" t="n">
-        <v>3.54582698712695</v>
+        <v>3.38563015877504</v>
       </c>
     </row>
     <row r="416">
@@ -10358,7 +10358,7 @@
         <v>145484</v>
       </c>
       <c r="E416" t="n">
-        <v>3.41532117291915</v>
+        <v>3.23520182444999</v>
       </c>
     </row>
     <row r="417">
@@ -10375,7 +10375,7 @@
         <v>105105</v>
       </c>
       <c r="E417" t="n">
-        <v>2.99923912132597</v>
+        <v>2.80159296041429</v>
       </c>
     </row>
     <row r="418">
@@ -10392,7 +10392,7 @@
         <v>106656</v>
       </c>
       <c r="E418" t="n">
-        <v>2.99774777935456</v>
+        <v>2.77751851711039</v>
       </c>
     </row>
     <row r="419">
@@ -10409,7 +10409,7 @@
         <v>83081</v>
       </c>
       <c r="E419" t="n">
-        <v>3.66050553580229</v>
+        <v>3.46366962952684</v>
       </c>
     </row>
     <row r="420">
@@ -10426,7 +10426,7 @@
         <v>253887</v>
       </c>
       <c r="E420" t="n">
-        <v>3.39757145017099</v>
+        <v>3.22824472639966</v>
       </c>
     </row>
     <row r="421">
@@ -10443,7 +10443,7 @@
         <v>142699</v>
       </c>
       <c r="E421" t="n">
-        <v>3.88040654621099</v>
+        <v>3.69578077391933</v>
       </c>
     </row>
     <row r="422">
@@ -10460,7 +10460,7 @@
         <v>181330</v>
       </c>
       <c r="E422" t="n">
-        <v>2.74108179732992</v>
+        <v>2.5507596101514</v>
       </c>
     </row>
     <row r="423">
@@ -10477,7 +10477,7 @@
         <v>143822</v>
       </c>
       <c r="E423" t="n">
-        <v>3.63121799961218</v>
+        <v>3.46387070240695</v>
       </c>
     </row>
     <row r="424">
@@ -10494,7 +10494,7 @@
         <v>136090</v>
       </c>
       <c r="E424" t="n">
-        <v>3.25689942716913</v>
+        <v>3.04207262762054</v>
       </c>
     </row>
     <row r="425">
@@ -10511,7 +10511,7 @@
         <v>72519</v>
       </c>
       <c r="E425" t="n">
-        <v>3.0088040409825</v>
+        <v>2.81838072694172</v>
       </c>
     </row>
     <row r="426">
@@ -10528,7 +10528,7 @@
         <v>117105</v>
       </c>
       <c r="E426" t="n">
-        <v>3.6529943282229</v>
+        <v>3.43494115683231</v>
       </c>
     </row>
     <row r="427">
@@ -10545,7 +10545,7 @@
         <v>153533</v>
       </c>
       <c r="E427" t="n">
-        <v>3.79643715204412</v>
+        <v>3.6339626673105</v>
       </c>
     </row>
     <row r="428">
@@ -10562,7 +10562,7 @@
         <v>125198</v>
       </c>
       <c r="E428" t="n">
-        <v>3.08822773785763</v>
+        <v>2.86858288443051</v>
       </c>
     </row>
     <row r="429">
@@ -10579,7 +10579,7 @@
         <v>285312</v>
       </c>
       <c r="E429" t="n">
-        <v>2.75839649327554</v>
+        <v>2.56473033695978</v>
       </c>
     </row>
     <row r="430">
@@ -10596,7 +10596,7 @@
         <v>116783</v>
       </c>
       <c r="E430" t="n">
-        <v>3.49027670182327</v>
+        <v>3.33116835417048</v>
       </c>
     </row>
     <row r="431">
@@ -10613,7 +10613,7 @@
         <v>123560</v>
       </c>
       <c r="E431" t="n">
-        <v>3.03955430157876</v>
+        <v>2.83541487077049</v>
       </c>
     </row>
     <row r="432">
@@ -10630,7 +10630,7 @@
         <v>94940</v>
       </c>
       <c r="E432" t="n">
-        <v>3.40520199892959</v>
+        <v>3.19560860398174</v>
       </c>
     </row>
     <row r="433">
@@ -10647,7 +10647,7 @@
         <v>1511913</v>
       </c>
       <c r="E433" t="n">
-        <v>3.78154180449978</v>
+        <v>3.60540116076865</v>
       </c>
     </row>
     <row r="434">
@@ -10664,7 +10664,7 @@
         <v>88488</v>
       </c>
       <c r="E434" t="n">
-        <v>2.91524996961334</v>
+        <v>2.71915676724627</v>
       </c>
     </row>
     <row r="435">
@@ -10681,7 +10681,7 @@
         <v>104998</v>
       </c>
       <c r="E435" t="n">
-        <v>3.38180898596291</v>
+        <v>3.17381013716436</v>
       </c>
     </row>
     <row r="436">
@@ -10698,7 +10698,7 @@
         <v>136437</v>
       </c>
       <c r="E436" t="n">
-        <v>3.70326942274624</v>
+        <v>3.51427033504404</v>
       </c>
     </row>
     <row r="437">
@@ -10715,7 +10715,7 @@
         <v>104745</v>
       </c>
       <c r="E437" t="n">
-        <v>3.42573102887626</v>
+        <v>3.19438612646929</v>
       </c>
     </row>
     <row r="438">
@@ -10732,7 +10732,7 @@
         <v>76694</v>
       </c>
       <c r="E438" t="n">
-        <v>2.43649676379401</v>
+        <v>2.25132796960718</v>
       </c>
     </row>
     <row r="439">
@@ -10749,7 +10749,7 @@
         <v>87037</v>
       </c>
       <c r="E439" t="n">
-        <v>3.35780225967902</v>
+        <v>3.10985703798975</v>
       </c>
     </row>
     <row r="440">
@@ -10766,7 +10766,7 @@
         <v>97840</v>
       </c>
       <c r="E440" t="n">
-        <v>2.80805387764493</v>
+        <v>2.60578896895472</v>
       </c>
     </row>
     <row r="441">
@@ -10783,7 +10783,7 @@
         <v>117331</v>
       </c>
       <c r="E441" t="n">
-        <v>2.78096846326705</v>
+        <v>2.6003766237924</v>
       </c>
     </row>
     <row r="442">
@@ -10800,7 +10800,7 @@
         <v>84390</v>
       </c>
       <c r="E442" t="n">
-        <v>3.00685254926404</v>
+        <v>2.77948934717969</v>
       </c>
     </row>
     <row r="443">
@@ -10817,7 +10817,7 @@
         <v>200538</v>
       </c>
       <c r="E443" t="n">
-        <v>2.9503177069265</v>
+        <v>2.76718613220066</v>
       </c>
     </row>
     <row r="444">
@@ -10834,7 +10834,7 @@
         <v>96146</v>
       </c>
       <c r="E444" t="n">
-        <v>2.90174747087523</v>
+        <v>2.71578806385109</v>
       </c>
     </row>
     <row r="445">
@@ -10851,7 +10851,7 @@
         <v>113921</v>
       </c>
       <c r="E445" t="n">
-        <v>2.84174354909677</v>
+        <v>2.66235789180243</v>
       </c>
     </row>
     <row r="446">
@@ -10868,7 +10868,7 @@
         <v>136166</v>
       </c>
       <c r="E446" t="n">
-        <v>3.04154118401276</v>
+        <v>2.85709412760302</v>
       </c>
     </row>
     <row r="447">
@@ -10885,7 +10885,7 @@
         <v>160035</v>
       </c>
       <c r="E447" t="n">
-        <v>3.15805451447885</v>
+        <v>2.97977856038533</v>
       </c>
     </row>
     <row r="448">
@@ -10902,7 +10902,7 @@
         <v>240397</v>
       </c>
       <c r="E448" t="n">
-        <v>3.05695755549729</v>
+        <v>2.8201077848608</v>
       </c>
     </row>
     <row r="449">
@@ -10919,7 +10919,7 @@
         <v>134669</v>
       </c>
       <c r="E449" t="n">
-        <v>3.87574126507073</v>
+        <v>3.70156631182149</v>
       </c>
     </row>
     <row r="450">
@@ -10936,7 +10936,7 @@
         <v>80995</v>
       </c>
       <c r="E450" t="n">
-        <v>3.58540643936762</v>
+        <v>3.41308965760385</v>
       </c>
     </row>
     <row r="451">
@@ -10953,7 +10953,7 @@
         <v>179388</v>
       </c>
       <c r="E451" t="n">
-        <v>3.67985944060259</v>
+        <v>3.51129771315197</v>
       </c>
     </row>
     <row r="452">
@@ -10970,7 +10970,7 @@
         <v>244703</v>
       </c>
       <c r="E452" t="n">
-        <v>3.64857364663449</v>
+        <v>3.47809470615341</v>
       </c>
     </row>
     <row r="453">
@@ -10987,7 +10987,7 @@
         <v>94572</v>
       </c>
       <c r="E453" t="n">
-        <v>3.83113550562275</v>
+        <v>3.6601189803832</v>
       </c>
     </row>
     <row r="454">
@@ -11004,7 +11004,7 @@
         <v>227032</v>
       </c>
       <c r="E454" t="n">
-        <v>3.69491209256863</v>
+        <v>3.52678100345011</v>
       </c>
     </row>
     <row r="455">
@@ -11021,7 +11021,7 @@
         <v>99837</v>
       </c>
       <c r="E455" t="n">
-        <v>3.75596800685876</v>
+        <v>3.56438929024936</v>
       </c>
     </row>
     <row r="456">
@@ -11038,7 +11038,7 @@
         <v>90237</v>
       </c>
       <c r="E456" t="n">
-        <v>3.47238467499687</v>
+        <v>3.25514591408674</v>
       </c>
     </row>
     <row r="457">
@@ -11055,7 +11055,7 @@
         <v>450435</v>
       </c>
       <c r="E457" t="n">
-        <v>3.0917913077793</v>
+        <v>2.89434348432687</v>
       </c>
     </row>
     <row r="458">
@@ -11072,7 +11072,7 @@
         <v>79619</v>
       </c>
       <c r="E458" t="n">
-        <v>3.01051733825655</v>
+        <v>2.82091461989519</v>
       </c>
     </row>
     <row r="459">
@@ -11089,7 +11089,7 @@
         <v>144459</v>
       </c>
       <c r="E459" t="n">
-        <v>3.0120507160524</v>
+        <v>2.83795021621061</v>
       </c>
     </row>
     <row r="460">
@@ -11106,7 +11106,7 @@
         <v>89044</v>
       </c>
       <c r="E460" t="n">
-        <v>3.05005380443263</v>
+        <v>2.84814612460592</v>
       </c>
     </row>
     <row r="461">
@@ -11123,7 +11123,7 @@
         <v>110086</v>
       </c>
       <c r="E461" t="n">
-        <v>3.289165057695</v>
+        <v>3.04222176256572</v>
       </c>
     </row>
     <row r="462">
@@ -11140,7 +11140,7 @@
         <v>96691</v>
       </c>
       <c r="E462" t="n">
-        <v>3.17191232093509</v>
+        <v>2.99530742205409</v>
       </c>
     </row>
     <row r="463">
@@ -11157,7 +11157,7 @@
         <v>81601</v>
       </c>
       <c r="E463" t="n">
-        <v>3.22198915176292</v>
+        <v>3.00291377958096</v>
       </c>
     </row>
     <row r="464">
@@ -11174,7 +11174,7 @@
         <v>128463</v>
       </c>
       <c r="E464" t="n">
-        <v>3.2684448678034</v>
+        <v>3.07989885142511</v>
       </c>
     </row>
     <row r="465">
@@ -11191,7 +11191,7 @@
         <v>101372</v>
       </c>
       <c r="E465" t="n">
-        <v>3.02882435186608</v>
+        <v>2.85615272995045</v>
       </c>
     </row>
     <row r="466">
@@ -11208,7 +11208,7 @@
         <v>724764</v>
       </c>
       <c r="E466" t="n">
-        <v>3.001244827835</v>
+        <v>2.82958194451941</v>
       </c>
     </row>
     <row r="467">
@@ -11225,7 +11225,7 @@
         <v>217096</v>
       </c>
       <c r="E467" t="n">
-        <v>3.0589243692608</v>
+        <v>2.84441951440906</v>
       </c>
     </row>
     <row r="468">
@@ -11242,7 +11242,7 @@
         <v>97858</v>
       </c>
       <c r="E468" t="n">
-        <v>3.14258015491527</v>
+        <v>2.92640001053737</v>
       </c>
     </row>
     <row r="469">
@@ -11259,7 +11259,7 @@
         <v>213426</v>
       </c>
       <c r="E469" t="n">
-        <v>3.13687211436528</v>
+        <v>2.92231004778482</v>
       </c>
     </row>
     <row r="470">
@@ -11276,7 +11276,7 @@
         <v>175661</v>
       </c>
       <c r="E470" t="n">
-        <v>3.18000500772961</v>
+        <v>2.96153404424539</v>
       </c>
     </row>
     <row r="471">
@@ -11293,7 +11293,7 @@
         <v>93669</v>
       </c>
       <c r="E471" t="n">
-        <v>3.63873102750256</v>
+        <v>3.44443423398224</v>
       </c>
     </row>
     <row r="472">
@@ -11310,7 +11310,7 @@
         <v>73984</v>
       </c>
       <c r="E472" t="n">
-        <v>2.71350156805642</v>
+        <v>2.50573442724068</v>
       </c>
     </row>
     <row r="473">
@@ -11327,7 +11327,7 @@
         <v>105114</v>
       </c>
       <c r="E473" t="n">
-        <v>3.0383090676979</v>
+        <v>2.79660612410936</v>
       </c>
     </row>
     <row r="474">
@@ -11344,7 +11344,7 @@
         <v>99875</v>
       </c>
       <c r="E474" t="n">
-        <v>3.3591615104677</v>
+        <v>3.1557445909761</v>
       </c>
     </row>
     <row r="475">
@@ -11361,7 +11361,7 @@
         <v>255239</v>
       </c>
       <c r="E475" t="n">
-        <v>2.78829154835338</v>
+        <v>2.58250084359181</v>
       </c>
     </row>
     <row r="476">
@@ -11378,7 +11378,7 @@
         <v>595365</v>
       </c>
       <c r="E476" t="n">
-        <v>3.77427266791001</v>
+        <v>3.60599853998698</v>
       </c>
     </row>
     <row r="477">
@@ -11395,7 +11395,7 @@
         <v>77555</v>
       </c>
       <c r="E477" t="n">
-        <v>3.27274408818982</v>
+        <v>3.05000614954599</v>
       </c>
     </row>
     <row r="478">
@@ -11412,7 +11412,7 @@
         <v>72483</v>
       </c>
       <c r="E478" t="n">
-        <v>2.67857198757428</v>
+        <v>2.48123370299943</v>
       </c>
     </row>
   </sheetData>
